--- a/results/noca_day_binn_results.xlsx
+++ b/results/noca_day_binn_results.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="full_tukey" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="relevant_tukey" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="notes" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="203">
   <si>
     <t xml:space="preserve"> contrast</t>
   </si>
@@ -612,6 +613,24 @@
   </si>
   <si>
     <t xml:space="preserve"> 4.kiowa - 5.kiowa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zip_noca2 &lt;- glmmTMB(num_noca ~ aridx + (1|site), data = a3, ziformula=~1, family=poisson)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">model binned by day so average aridity metric for each day.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">observed aridity scaled within sites and binned into 5 groups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“aridx” is the interaction between the binned aridity metric and the sites (lwma, sswma, cbma, and kiowa)</t>
   </si>
 </sst>
 </file>
@@ -4560,7 +4579,7 @@
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -5198,4 +5217,57 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="78.91"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/results/noca_day_binn_results.xlsx
+++ b/results/noca_day_binn_results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="full_tukey" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,18 +22,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="203">
-  <si>
-    <t xml:space="preserve"> contrast</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> estimate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    SE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> df</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="203">
+  <si>
+    <t xml:space="preserve">contrast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estimate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">df</t>
   </si>
   <si>
     <t xml:space="preserve">t.ratio</t>
@@ -45,7 +45,7 @@
     <t xml:space="preserve"> 1.lwma - 2.lwma</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;.0001</t>
+    <t xml:space="preserve">  &lt;.0001</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.lwma - 3.lwma</t>
@@ -704,12 +704,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -732,8 +728,8 @@
   </sheetPr>
   <dimension ref="A1:F191"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A148" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A161" activeCellId="0" sqref="A161"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -766,16 +762,16 @@
         <v>6</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>-0.514549</v>
+        <v>-0.5359</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0.0617</v>
+        <v>0.0572</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>-8.34</v>
+        <v>-9.364</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>7</v>
@@ -786,16 +782,16 @@
         <v>8</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>-0.659749</v>
+        <v>-0.75965</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0.0608</v>
+        <v>0.0536</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>-10.859</v>
+        <v>-14.164</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>7</v>
@@ -806,19 +802,19 @@
         <v>9</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-0.798718</v>
+        <v>-0.33297</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.0584</v>
+        <v>0.078</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-13.673</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>7</v>
+        <v>-4.267</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0.004</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -826,19 +822,19 @@
         <v>10</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>-0.428536</v>
+        <v>-0.38426</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0.0627</v>
+        <v>0.1758</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>-6.836</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>7</v>
+        <v>-2.186</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0.8074</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -846,16 +842,16 @@
         <v>11</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>-0.605961</v>
+        <v>-0.64418</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>0.0602</v>
+        <v>0.0596</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>-10.07</v>
+        <v>-10.804</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>7</v>
@@ -866,16 +862,16 @@
         <v>12</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>-0.930944</v>
+        <v>-0.70155</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>0.0593</v>
+        <v>0.0552</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>-15.691</v>
+        <v>-12.706</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>7</v>
@@ -886,19 +882,19 @@
         <v>13</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>-0.361</v>
+        <v>-0.04177</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>0.0651</v>
+        <v>0.0659</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>-5.547</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>7</v>
+        <v>-0.634</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -906,19 +902,19 @@
         <v>14</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0.108796</v>
+        <v>0.25086</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>0.0697</v>
+        <v>0.085</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>1.561</v>
+        <v>2.95</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>0.9916</v>
+        <v>0.2651</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -926,19 +922,19 @@
         <v>15</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>0.295008</v>
+        <v>1.15883</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>0.0865</v>
+        <v>0.2652</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>3.41</v>
+        <v>4.369</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>0.0811</v>
+        <v>0.0026</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -946,16 +942,16 @@
         <v>16</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>3.552333</v>
+        <v>3.41546</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>0.3611</v>
+        <v>0.3365</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>9.839</v>
+        <v>10.151</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>7</v>
@@ -966,16 +962,16 @@
         <v>17</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>4.121002</v>
+        <v>3.65623</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>0.4373</v>
+        <v>0.3438</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>9.425</v>
+        <v>10.636</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>7</v>
@@ -986,19 +982,19 @@
         <v>18</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>-0.286587</v>
+        <v>-0.1309</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0.093</v>
+        <v>0.092</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>-3.082</v>
+        <v>-1.423</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>0.1954</v>
+        <v>0.9973</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1006,16 +1002,16 @@
         <v>19</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>3.552156</v>
+        <v>3.62046</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0.3901</v>
+        <v>0.4478</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>9.106</v>
+        <v>8.084</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>7</v>
@@ -1026,19 +1022,19 @@
         <v>20</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>3.66144</v>
+        <v>5.01801</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>0.4098</v>
+        <v>1.0248</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>8.934</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>7</v>
+        <v>4.897</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0.0003</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1046,16 +1042,16 @@
         <v>21</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>1.870909</v>
+        <v>1.77374</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0.1681</v>
+        <v>0.1839</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>11.131</v>
+        <v>9.643</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>7</v>
@@ -1066,16 +1062,16 @@
         <v>22</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>2.808501</v>
+        <v>2.642</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>0.265</v>
+        <v>0.1923</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>10.597</v>
+        <v>13.739</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>7</v>
@@ -1086,16 +1082,16 @@
         <v>23</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>2.497266</v>
+        <v>1.93689</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>0.2934</v>
+        <v>0.1624</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>8.51</v>
+        <v>11.928</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>7</v>
@@ -1106,16 +1102,16 @@
         <v>24</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>2.057292</v>
+        <v>2.77394</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>0.1761</v>
+        <v>0.2775</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>11.685</v>
+        <v>9.995</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>7</v>
@@ -1126,16 +1122,16 @@
         <v>25</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>2.744139</v>
+        <v>2.78335</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>0.2497</v>
+        <v>0.475</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>10.992</v>
+        <v>5.86</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>7</v>
@@ -1146,19 +1142,19 @@
         <v>26</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>-0.145199</v>
+        <v>-0.22375</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>0.0513</v>
+        <v>0.0386</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>-2.831</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>0.3393</v>
+        <v>-5.797</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1166,19 +1162,19 @@
         <v>27</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>-0.284169</v>
+        <v>0.20293</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>0.0485</v>
+        <v>0.0686</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>-5.858</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>7</v>
+        <v>2.959</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0.2598</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1186,19 +1182,19 @@
         <v>28</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>0.086013</v>
+        <v>0.15164</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>0.0536</v>
+        <v>0.1718</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>1.605</v>
+        <v>0.883</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>0.9884</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1206,19 +1202,19 @@
         <v>29</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>-0.091411</v>
+        <v>-0.10828</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>0.0506</v>
+        <v>0.0466</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>-1.806</v>
+        <v>-2.325</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>0.9601</v>
+        <v>0.7156</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1226,19 +1222,19 @@
         <v>30</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>-0.416395</v>
+        <v>-0.16565</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>0.0496</v>
+        <v>0.0408</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>-8.394</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>7</v>
+        <v>-4.064</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>0.0088</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1246,19 +1242,19 @@
         <v>31</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>0.15355</v>
+        <v>0.49413</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>0.0564</v>
+        <v>0.0544</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>2.725</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <v>0.413</v>
+        <v>9.088</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1266,16 +1262,16 @@
         <v>32</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>0.623345</v>
+        <v>0.78676</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>0.0617</v>
+        <v>0.0765</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>10.111</v>
+        <v>10.29</v>
       </c>
       <c r="F27" s="0" t="s">
         <v>7</v>
@@ -1286,16 +1282,16 @@
         <v>33</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>0.809557</v>
+        <v>1.69473</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>0.0802</v>
+        <v>0.2626</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>10.1</v>
+        <v>6.454</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>7</v>
@@ -1306,16 +1302,16 @@
         <v>34</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>4.066882</v>
+        <v>3.95136</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>0.3596</v>
+        <v>0.3344</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>11.31</v>
+        <v>11.817</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>7</v>
@@ -1326,16 +1322,16 @@
         <v>35</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>4.635551</v>
+        <v>4.19213</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>0.436</v>
+        <v>0.3417</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>10.631</v>
+        <v>12.267</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>7</v>
@@ -1346,19 +1342,19 @@
         <v>36</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>0.227962</v>
+        <v>0.405</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>0.0871</v>
+        <v>0.0841</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>2.618</v>
+        <v>4.813</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>0.4936</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1366,16 +1362,16 @@
         <v>37</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>4.066705</v>
+        <v>4.15635</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>0.3887</v>
+        <v>0.4463</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>10.461</v>
+        <v>9.313</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>7</v>
@@ -1386,16 +1382,16 @@
         <v>38</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>4.17599</v>
+        <v>5.55391</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>0.4086</v>
+        <v>1.0241</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>10.221</v>
+        <v>5.423</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>7</v>
@@ -1406,16 +1402,16 @@
         <v>39</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>2.385459</v>
+        <v>2.30963</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>0.1649</v>
+        <v>0.1801</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>14.466</v>
+        <v>12.822</v>
       </c>
       <c r="F34" s="0" t="s">
         <v>7</v>
@@ -1426,16 +1422,16 @@
         <v>40</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>3.32305</v>
+        <v>3.1779</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>0.263</v>
+        <v>0.1887</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>12.634</v>
+        <v>16.845</v>
       </c>
       <c r="F35" s="0" t="s">
         <v>7</v>
@@ -1446,16 +1442,16 @@
         <v>41</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>3.011815</v>
+        <v>2.47279</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>0.2916</v>
+        <v>0.1581</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>10.327</v>
+        <v>15.645</v>
       </c>
       <c r="F36" s="0" t="s">
         <v>7</v>
@@ -1466,16 +1462,16 @@
         <v>42</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>2.571841</v>
+        <v>3.30983</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>0.173</v>
+        <v>0.275</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>14.864</v>
+        <v>12.035</v>
       </c>
       <c r="F37" s="0" t="s">
         <v>7</v>
@@ -1486,16 +1482,16 @@
         <v>43</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>3.258688</v>
+        <v>3.31925</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>0.2475</v>
+        <v>0.4735</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>13.165</v>
+        <v>7.009</v>
       </c>
       <c r="F38" s="0" t="s">
         <v>7</v>
@@ -1506,19 +1502,19 @@
         <v>44</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>-0.13897</v>
+        <v>0.42668</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>0.0473</v>
+        <v>0.0656</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>-2.938</v>
-      </c>
-      <c r="F39" s="0" t="n">
-        <v>0.2719</v>
+        <v>6.503</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1526,19 +1522,19 @@
         <v>45</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>0.231212</v>
+        <v>0.37539</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>0.0525</v>
+        <v>0.1706</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>4.405</v>
+        <v>2.2</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>0.0022</v>
+        <v>0.7989</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1546,19 +1542,19 @@
         <v>46</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>0.053788</v>
+        <v>0.11547</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>0.0495</v>
+        <v>0.0421</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>1.088</v>
+        <v>2.745</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>0.9999</v>
+        <v>0.3984</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1566,19 +1562,19 @@
         <v>47</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>-0.271195</v>
+        <v>0.0581</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>0.0484</v>
+        <v>0.0355</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>-5.601</v>
-      </c>
-      <c r="F42" s="0" t="s">
-        <v>7</v>
+        <v>1.635</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>0.9858</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1586,16 +1582,16 @@
         <v>48</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>0.298749</v>
+        <v>0.71788</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>0.0553</v>
+        <v>0.0506</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>5.401</v>
+        <v>14.196</v>
       </c>
       <c r="F43" s="0" t="s">
         <v>7</v>
@@ -1606,16 +1602,16 @@
         <v>49</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>0.768544</v>
+        <v>1.01051</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>0.0607</v>
+        <v>0.0738</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>12.66</v>
+        <v>13.692</v>
       </c>
       <c r="F44" s="0" t="s">
         <v>7</v>
@@ -1626,16 +1622,16 @@
         <v>50</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>0.954757</v>
+        <v>1.91848</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>0.0794</v>
+        <v>0.2618</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>12.021</v>
+        <v>7.327</v>
       </c>
       <c r="F45" s="0" t="s">
         <v>7</v>
@@ -1646,16 +1642,16 @@
         <v>51</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>4.212082</v>
+        <v>4.17511</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>0.3594</v>
+        <v>0.3338</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>11.719</v>
+        <v>12.508</v>
       </c>
       <c r="F46" s="0" t="s">
         <v>7</v>
@@ -1666,16 +1662,16 @@
         <v>52</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>4.780751</v>
+        <v>4.41588</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>0.4359</v>
+        <v>0.3412</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>10.967</v>
+        <v>12.944</v>
       </c>
       <c r="F47" s="0" t="s">
         <v>7</v>
@@ -1686,19 +1682,19 @@
         <v>53</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>0.373162</v>
+        <v>0.62875</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>0.0864</v>
+        <v>0.0817</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>4.318</v>
-      </c>
-      <c r="F48" s="0" t="n">
-        <v>0.0032</v>
+        <v>7.693</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1706,16 +1702,16 @@
         <v>54</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>4.211905</v>
+        <v>4.38011</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>0.3886</v>
+        <v>0.4458</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>10.839</v>
+        <v>9.825</v>
       </c>
       <c r="F49" s="0" t="s">
         <v>7</v>
@@ -1726,16 +1722,16 @@
         <v>55</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>4.321189</v>
+        <v>5.77766</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>0.4084</v>
+        <v>1.0239</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>10.581</v>
+        <v>5.643</v>
       </c>
       <c r="F50" s="0" t="s">
         <v>7</v>
@@ -1746,16 +1742,16 @@
         <v>56</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>2.530658</v>
+        <v>2.53339</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>0.1645</v>
+        <v>0.179</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>15.38</v>
+        <v>14.151</v>
       </c>
       <c r="F51" s="0" t="s">
         <v>7</v>
@@ -1766,16 +1762,16 @@
         <v>57</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>3.468249</v>
+        <v>3.40165</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>0.2628</v>
+        <v>0.1876</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>13.197</v>
+        <v>18.133</v>
       </c>
       <c r="F52" s="0" t="s">
         <v>7</v>
@@ -1786,16 +1782,16 @@
         <v>58</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>3.157015</v>
+        <v>2.69654</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>0.2914</v>
+        <v>0.1568</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>10.833</v>
+        <v>17.198</v>
       </c>
       <c r="F53" s="0" t="s">
         <v>7</v>
@@ -1806,16 +1802,16 @@
         <v>59</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>2.717041</v>
+        <v>3.53358</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>0.1727</v>
+        <v>0.2743</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>15.733</v>
+        <v>12.883</v>
       </c>
       <c r="F54" s="0" t="s">
         <v>7</v>
@@ -1826,16 +1822,16 @@
         <v>60</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>3.403888</v>
+        <v>3.543</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>0.2473</v>
+        <v>0.4731</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>13.765</v>
+        <v>7.489</v>
       </c>
       <c r="F55" s="0" t="s">
         <v>7</v>
@@ -1846,19 +1842,19 @@
         <v>61</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>0.370182</v>
+        <v>-0.05129</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>0.0498</v>
+        <v>0.1798</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>7.439</v>
-      </c>
-      <c r="F56" s="0" t="s">
-        <v>7</v>
+        <v>-0.285</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1866,19 +1862,19 @@
         <v>62</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>0.192758</v>
+        <v>-0.31121</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>0.0466</v>
+        <v>0.0706</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>4.141</v>
+        <v>-4.409</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>0.0066</v>
+        <v>0.0022</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1886,19 +1882,19 @@
         <v>63</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>-0.132226</v>
+        <v>-0.36858</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>0.0455</v>
+        <v>0.0669</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>-2.909</v>
-      </c>
-      <c r="F58" s="0" t="n">
-        <v>0.2894</v>
+        <v>-5.509</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1906,19 +1902,19 @@
         <v>64</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>0.437719</v>
+        <v>0.2912</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>0.0527</v>
+        <v>0.076</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>8.3</v>
-      </c>
-      <c r="F59" s="0" t="s">
-        <v>7</v>
+        <v>3.833</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>0.0206</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1926,16 +1922,16 @@
         <v>65</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>0.907514</v>
+        <v>0.58383</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>0.0584</v>
+        <v>0.0931</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>15.549</v>
+        <v>6.273</v>
       </c>
       <c r="F60" s="0" t="s">
         <v>7</v>
@@ -1946,16 +1942,16 @@
         <v>66</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>1.093726</v>
+        <v>1.4918</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>0.0777</v>
+        <v>0.2679</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>14.085</v>
+        <v>5.569</v>
       </c>
       <c r="F61" s="0" t="s">
         <v>7</v>
@@ -1966,16 +1962,16 @@
         <v>67</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>4.351051</v>
+        <v>3.74843</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>0.359</v>
+        <v>0.3386</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>12.118</v>
+        <v>11.071</v>
       </c>
       <c r="F62" s="0" t="s">
         <v>7</v>
@@ -1986,16 +1982,16 @@
         <v>68</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>4.91972</v>
+        <v>3.9892</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>0.4356</v>
+        <v>0.3458</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>11.294</v>
+        <v>11.535</v>
       </c>
       <c r="F63" s="0" t="s">
         <v>7</v>
@@ -2006,19 +2002,19 @@
         <v>69</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>0.512131</v>
+        <v>0.20207</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>0.0848</v>
+        <v>0.0995</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>6.039</v>
-      </c>
-      <c r="F64" s="0" t="s">
-        <v>7</v>
+        <v>2.031</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>0.8877</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2026,16 +2022,16 @@
         <v>70</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>4.350874</v>
+        <v>3.95343</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>0.3882</v>
+        <v>0.4494</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>11.207</v>
+        <v>8.797</v>
       </c>
       <c r="F65" s="0" t="s">
         <v>7</v>
@@ -2046,19 +2042,19 @@
         <v>71</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>4.460159</v>
+        <v>5.35098</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>0.4081</v>
+        <v>1.0255</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="F66" s="0" t="s">
-        <v>7</v>
+        <v>5.218</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <v>0.0001</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2066,16 +2062,16 @@
         <v>72</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>2.669628</v>
+        <v>2.1067</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>0.1637</v>
+        <v>0.1878</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>16.308</v>
+        <v>11.219</v>
       </c>
       <c r="F67" s="0" t="s">
         <v>7</v>
@@ -2086,16 +2082,16 @@
         <v>73</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>3.607219</v>
+        <v>2.97497</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>0.2623</v>
+        <v>0.196</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>13.754</v>
+        <v>15.18</v>
       </c>
       <c r="F68" s="0" t="s">
         <v>7</v>
@@ -2106,16 +2102,16 @@
         <v>74</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>3.295984</v>
+        <v>2.26986</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>0.291</v>
+        <v>0.1667</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>11.328</v>
+        <v>13.614</v>
       </c>
       <c r="F69" s="0" t="s">
         <v>7</v>
@@ -2126,16 +2122,16 @@
         <v>75</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>2.85601</v>
+        <v>3.1069</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>0.1719</v>
+        <v>0.2801</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>16.616</v>
+        <v>11.093</v>
       </c>
       <c r="F70" s="0" t="s">
         <v>7</v>
@@ -2146,16 +2142,16 @@
         <v>76</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>3.542857</v>
+        <v>3.11632</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>0.2467</v>
+        <v>0.4765</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>14.359</v>
+        <v>6.54</v>
       </c>
       <c r="F71" s="0" t="s">
         <v>7</v>
@@ -2166,19 +2162,19 @@
         <v>77</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>-0.177424</v>
+        <v>-0.25992</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>0.0518</v>
+        <v>0.1726</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>-3.424</v>
+        <v>-1.506</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>0.0778</v>
+        <v>0.9945</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2186,19 +2182,19 @@
         <v>78</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>-0.502408</v>
+        <v>-0.31729</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>0.0508</v>
+        <v>0.1711</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>-9.884</v>
-      </c>
-      <c r="F73" s="0" t="s">
-        <v>7</v>
+        <v>-1.854</v>
+      </c>
+      <c r="F73" s="0" t="n">
+        <v>0.9489</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2206,19 +2202,19 @@
         <v>79</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>0.067537</v>
+        <v>0.34249</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>0.0574</v>
+        <v>0.1749</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>1.176</v>
+        <v>1.958</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>0.9998</v>
+        <v>0.9169</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2226,19 +2222,19 @@
         <v>80</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>0.537332</v>
+        <v>0.63512</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>0.0626</v>
+        <v>0.183</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>8.578</v>
-      </c>
-      <c r="F75" s="0" t="s">
-        <v>7</v>
+        <v>3.471</v>
+      </c>
+      <c r="F75" s="0" t="n">
+        <v>0.0675</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2246,19 +2242,19 @@
         <v>81</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>0.723544</v>
+        <v>1.54309</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>0.0809</v>
+        <v>0.3108</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>8.942</v>
-      </c>
-      <c r="F76" s="0" t="s">
-        <v>7</v>
+        <v>4.965</v>
+      </c>
+      <c r="F76" s="0" t="n">
+        <v>0.0002</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2266,16 +2262,16 @@
         <v>82</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>3.980869</v>
+        <v>3.79972</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>0.3598</v>
+        <v>0.3734</v>
       </c>
       <c r="D77" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>11.065</v>
+        <v>10.176</v>
       </c>
       <c r="F77" s="0" t="s">
         <v>7</v>
@@ -2286,16 +2282,16 @@
         <v>83</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>4.549538</v>
+        <v>4.04049</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>0.4362</v>
+        <v>0.38</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>10.43</v>
+        <v>10.632</v>
       </c>
       <c r="F78" s="0" t="s">
         <v>7</v>
@@ -2306,19 +2302,19 @@
         <v>84</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>0.141949</v>
+        <v>0.25336</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>0.0878</v>
+        <v>0.1863</v>
       </c>
       <c r="D79" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>1.617</v>
+        <v>1.36</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>0.9874</v>
+        <v>0.9985</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2326,16 +2322,16 @@
         <v>85</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>3.980692</v>
+        <v>4.00472</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>0.3889</v>
+        <v>0.4762</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>10.236</v>
+        <v>8.409</v>
       </c>
       <c r="F80" s="0" t="s">
         <v>7</v>
@@ -2346,19 +2342,19 @@
         <v>86</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>4.089977</v>
+        <v>5.40227</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>0.4087</v>
+        <v>1.0375</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>10.007</v>
-      </c>
-      <c r="F81" s="0" t="s">
-        <v>7</v>
+        <v>5.207</v>
+      </c>
+      <c r="F81" s="0" t="n">
+        <v>0.0001</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2366,16 +2362,16 @@
         <v>87</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>2.299446</v>
+        <v>2.158</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>0.1653</v>
+        <v>0.2451</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>13.913</v>
+        <v>8.804</v>
       </c>
       <c r="F82" s="0" t="s">
         <v>7</v>
@@ -2386,16 +2382,16 @@
         <v>88</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>3.237037</v>
+        <v>3.02626</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>0.2633</v>
+        <v>0.2514</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>12.296</v>
+        <v>12.036</v>
       </c>
       <c r="F83" s="0" t="s">
         <v>7</v>
@@ -2406,16 +2402,16 @@
         <v>89</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>2.925802</v>
+        <v>2.32115</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>0.2918</v>
+        <v>0.2294</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>10.025</v>
+        <v>10.12</v>
       </c>
       <c r="F84" s="0" t="s">
         <v>7</v>
@@ -2426,16 +2422,16 @@
         <v>90</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>2.485828</v>
+        <v>3.1582</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>0.1734</v>
+        <v>0.3213</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>14.337</v>
+        <v>9.828</v>
       </c>
       <c r="F85" s="0" t="s">
         <v>7</v>
@@ -2446,16 +2442,16 @@
         <v>91</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>3.172675</v>
+        <v>3.16761</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>0.2478</v>
+        <v>0.5019</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>12.805</v>
+        <v>6.312</v>
       </c>
       <c r="F86" s="0" t="s">
         <v>7</v>
@@ -2466,19 +2462,19 @@
         <v>92</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>-0.324984</v>
+        <v>-0.05737</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>0.0477</v>
+        <v>0.0441</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>-6.814</v>
-      </c>
-      <c r="F87" s="0" t="s">
-        <v>7</v>
+        <v>-1.302</v>
+      </c>
+      <c r="F87" s="0" t="n">
+        <v>0.9991</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2486,19 +2482,19 @@
         <v>93</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>0.244961</v>
+        <v>0.60241</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>0.0547</v>
+        <v>0.0569</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="F88" s="0" t="n">
-        <v>0.0016</v>
+        <v>10.59</v>
+      </c>
+      <c r="F88" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2506,16 +2502,16 @@
         <v>94</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>0.714756</v>
+        <v>0.89504</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>0.0601</v>
+        <v>0.0783</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>11.888</v>
+        <v>11.436</v>
       </c>
       <c r="F89" s="0" t="s">
         <v>7</v>
@@ -2526,16 +2522,16 @@
         <v>95</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>0.900969</v>
+        <v>1.80301</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>0.079</v>
+        <v>0.2631</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>11.407</v>
+        <v>6.852</v>
       </c>
       <c r="F90" s="0" t="s">
         <v>7</v>
@@ -2546,16 +2542,16 @@
         <v>96</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>4.158294</v>
+        <v>4.05964</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>0.3593</v>
+        <v>0.3348</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>11.572</v>
+        <v>12.125</v>
       </c>
       <c r="F91" s="0" t="s">
         <v>7</v>
@@ -2566,16 +2562,16 @@
         <v>97</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>4.726963</v>
+        <v>4.30041</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>0.4358</v>
+        <v>0.3422</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>10.846</v>
+        <v>12.569</v>
       </c>
       <c r="F92" s="0" t="s">
         <v>7</v>
@@ -2586,19 +2582,19 @@
         <v>98</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>0.319374</v>
+        <v>0.51328</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>0.086</v>
+        <v>0.0858</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>3.713</v>
-      </c>
-      <c r="F93" s="0" t="n">
-        <v>0.0311</v>
+        <v>5.983</v>
+      </c>
+      <c r="F93" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2606,16 +2602,16 @@
         <v>99</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>4.158117</v>
+        <v>4.26464</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>0.3885</v>
+        <v>0.4466</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>10.703</v>
+        <v>9.549</v>
       </c>
       <c r="F94" s="0" t="s">
         <v>7</v>
@@ -2626,16 +2622,16 @@
         <v>100</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>4.267401</v>
+        <v>5.66219</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>0.4083</v>
+        <v>1.0242</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>10.451</v>
+        <v>5.528</v>
       </c>
       <c r="F95" s="0" t="s">
         <v>7</v>
@@ -2646,16 +2642,16 @@
         <v>101</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>2.47687</v>
+        <v>2.41792</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>0.1643</v>
+        <v>0.1809</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>15.072</v>
+        <v>13.365</v>
       </c>
       <c r="F96" s="0" t="s">
         <v>7</v>
@@ -2666,16 +2662,16 @@
         <v>102</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>3.414461</v>
+        <v>3.28618</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>0.2627</v>
+        <v>0.1894</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>12.999</v>
+        <v>17.351</v>
       </c>
       <c r="F97" s="0" t="s">
         <v>7</v>
@@ -2686,16 +2682,16 @@
         <v>103</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>3.103227</v>
+        <v>2.58107</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>0.2913</v>
+        <v>0.1589</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>10.652</v>
+        <v>16.239</v>
       </c>
       <c r="F98" s="0" t="s">
         <v>7</v>
@@ -2706,16 +2702,16 @@
         <v>104</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>2.663253</v>
+        <v>3.41812</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>0.1725</v>
+        <v>0.2755</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>15.44</v>
+        <v>12.406</v>
       </c>
       <c r="F99" s="0" t="s">
         <v>7</v>
@@ -2726,16 +2722,16 @@
         <v>105</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>3.3501</v>
+        <v>3.42753</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>0.2472</v>
+        <v>0.4738</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>13.555</v>
+        <v>7.234</v>
       </c>
       <c r="F100" s="0" t="s">
         <v>7</v>
@@ -2746,16 +2742,16 @@
         <v>106</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>0.569944</v>
+        <v>0.65978</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>0.0537</v>
+        <v>0.0522</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>10.604</v>
+        <v>12.629</v>
       </c>
       <c r="F101" s="0" t="s">
         <v>7</v>
@@ -2766,16 +2762,16 @@
         <v>107</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>1.03974</v>
+        <v>0.95241</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>0.0593</v>
+        <v>0.075</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>17.539</v>
+        <v>12.705</v>
       </c>
       <c r="F102" s="0" t="s">
         <v>7</v>
@@ -2786,16 +2782,16 @@
         <v>108</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>1.225952</v>
+        <v>1.86038</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>0.0783</v>
+        <v>0.2622</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>15.649</v>
+        <v>7.096</v>
       </c>
       <c r="F103" s="0" t="s">
         <v>7</v>
@@ -2806,16 +2802,16 @@
         <v>109</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>4.483277</v>
+        <v>4.11701</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>0.3592</v>
+        <v>0.334</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E104" s="0" t="n">
-        <v>12.482</v>
+        <v>12.325</v>
       </c>
       <c r="F104" s="0" t="s">
         <v>7</v>
@@ -2826,16 +2822,16 @@
         <v>110</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>5.051946</v>
+        <v>4.35778</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>0.4357</v>
+        <v>0.3414</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>11.595</v>
+        <v>12.764</v>
       </c>
       <c r="F105" s="0" t="s">
         <v>7</v>
@@ -2846,16 +2842,16 @@
         <v>111</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>0.644357</v>
+        <v>0.57065</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>0.0854</v>
+        <v>0.0828</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>7.543</v>
+        <v>6.894</v>
       </c>
       <c r="F106" s="0" t="s">
         <v>7</v>
@@ -2866,16 +2862,16 @@
         <v>112</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>4.4831</v>
+        <v>4.322</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>0.3884</v>
+        <v>0.446</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>11.543</v>
+        <v>9.69</v>
       </c>
       <c r="F107" s="0" t="s">
         <v>7</v>
@@ -2886,16 +2882,16 @@
         <v>113</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>4.592384</v>
+        <v>5.71956</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>0.4082</v>
+        <v>1.024</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E108" s="0" t="n">
-        <v>11.25</v>
+        <v>5.586</v>
       </c>
       <c r="F108" s="0" t="s">
         <v>7</v>
@@ -2906,16 +2902,16 @@
         <v>114</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>2.801853</v>
+        <v>2.47528</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>0.164</v>
+        <v>0.1795</v>
       </c>
       <c r="D109" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>17.082</v>
+        <v>13.79</v>
       </c>
       <c r="F109" s="0" t="s">
         <v>7</v>
@@ -2926,16 +2922,16 @@
         <v>115</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>3.739445</v>
+        <v>3.34355</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>0.2625</v>
+        <v>0.1881</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>14.247</v>
+        <v>17.779</v>
       </c>
       <c r="F110" s="0" t="s">
         <v>7</v>
@@ -2946,16 +2942,16 @@
         <v>116</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>3.42821</v>
+        <v>2.63844</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>0.2911</v>
+        <v>0.1573</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>11.775</v>
+        <v>16.769</v>
       </c>
       <c r="F111" s="0" t="s">
         <v>7</v>
@@ -2966,16 +2962,16 @@
         <v>117</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>2.988236</v>
+        <v>3.47548</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>0.1722</v>
+        <v>0.2746</v>
       </c>
       <c r="D112" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E112" s="0" t="n">
-        <v>17.353</v>
+        <v>12.656</v>
       </c>
       <c r="F112" s="0" t="s">
         <v>7</v>
@@ -2986,16 +2982,16 @@
         <v>118</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>3.675083</v>
+        <v>3.4849</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>0.2469</v>
+        <v>0.4733</v>
       </c>
       <c r="D113" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>14.882</v>
+        <v>7.363</v>
       </c>
       <c r="F113" s="0" t="s">
         <v>7</v>
@@ -3006,19 +3002,19 @@
         <v>119</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>0.469795</v>
+        <v>0.29263</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>0.065</v>
+        <v>0.0832</v>
       </c>
       <c r="D114" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>7.224</v>
-      </c>
-      <c r="F114" s="0" t="s">
-        <v>7</v>
+        <v>3.519</v>
+      </c>
+      <c r="F114" s="0" t="n">
+        <v>0.0583</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3026,19 +3022,19 @@
         <v>120</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>0.656008</v>
+        <v>1.2006</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>0.0828</v>
+        <v>0.2646</v>
       </c>
       <c r="D115" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>7.925</v>
-      </c>
-      <c r="F115" s="0" t="s">
-        <v>7</v>
+        <v>4.537</v>
+      </c>
+      <c r="F115" s="0" t="n">
+        <v>0.0013</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3046,16 +3042,16 @@
         <v>121</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>3.913333</v>
+        <v>3.45723</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>0.3602</v>
+        <v>0.336</v>
       </c>
       <c r="D116" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E116" s="0" t="n">
-        <v>10.865</v>
+        <v>10.29</v>
       </c>
       <c r="F116" s="0" t="s">
         <v>7</v>
@@ -3066,16 +3062,16 @@
         <v>122</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>4.482002</v>
+        <v>3.698</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>0.4365</v>
+        <v>0.3433</v>
       </c>
       <c r="D117" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>10.267</v>
+        <v>10.772</v>
       </c>
       <c r="F117" s="0" t="s">
         <v>7</v>
@@ -3086,16 +3082,16 @@
         <v>123</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>0.074413</v>
+        <v>-0.08913</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>0.0895</v>
+        <v>0.0903</v>
       </c>
       <c r="D118" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>0.831</v>
+        <v>-0.987</v>
       </c>
       <c r="F118" s="0" t="n">
         <v>1</v>
@@ -3106,16 +3102,16 @@
         <v>124</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>3.913156</v>
+        <v>3.66223</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>0.3893</v>
+        <v>0.4475</v>
       </c>
       <c r="D119" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>10.052</v>
+        <v>8.184</v>
       </c>
       <c r="F119" s="0" t="s">
         <v>7</v>
@@ -3126,19 +3122,19 @@
         <v>125</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>4.02244</v>
+        <v>5.05978</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>0.4091</v>
+        <v>1.0246</v>
       </c>
       <c r="D120" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E120" s="0" t="n">
-        <v>9.833</v>
-      </c>
-      <c r="F120" s="0" t="s">
-        <v>7</v>
+        <v>4.938</v>
+      </c>
+      <c r="F120" s="0" t="n">
+        <v>0.0002</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3146,16 +3142,16 @@
         <v>126</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>2.231909</v>
+        <v>1.81551</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>0.1662</v>
+        <v>0.1831</v>
       </c>
       <c r="D121" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>13.43</v>
+        <v>9.917</v>
       </c>
       <c r="F121" s="0" t="s">
         <v>7</v>
@@ -3166,16 +3162,16 @@
         <v>127</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>3.1695</v>
+        <v>2.68377</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>0.2638</v>
+        <v>0.1915</v>
       </c>
       <c r="D122" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E122" s="0" t="n">
-        <v>12.013</v>
+        <v>14.017</v>
       </c>
       <c r="F122" s="0" t="s">
         <v>7</v>
@@ -3186,16 +3182,16 @@
         <v>128</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>2.858266</v>
+        <v>1.97866</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>0.2924</v>
+        <v>0.1614</v>
       </c>
       <c r="D123" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E123" s="0" t="n">
-        <v>9.776</v>
+        <v>12.259</v>
       </c>
       <c r="F123" s="0" t="s">
         <v>7</v>
@@ -3206,16 +3202,16 @@
         <v>129</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>2.418292</v>
+        <v>2.8157</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>0.1743</v>
+        <v>0.277</v>
       </c>
       <c r="D124" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E124" s="0" t="n">
-        <v>13.877</v>
+        <v>10.167</v>
       </c>
       <c r="F124" s="0" t="s">
         <v>7</v>
@@ -3226,16 +3222,16 @@
         <v>130</v>
       </c>
       <c r="B125" s="0" t="n">
-        <v>3.105139</v>
+        <v>2.82512</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>0.2484</v>
+        <v>0.4747</v>
       </c>
       <c r="D125" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E125" s="0" t="n">
-        <v>12.501</v>
+        <v>5.952</v>
       </c>
       <c r="F125" s="0" t="s">
         <v>7</v>
@@ -3246,19 +3242,19 @@
         <v>131</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>0.186212</v>
+        <v>0.90797</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>0.0865</v>
+        <v>0.27</v>
       </c>
       <c r="D126" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E126" s="0" t="n">
-        <v>2.153</v>
+        <v>3.363</v>
       </c>
       <c r="F126" s="0" t="n">
-        <v>0.8263</v>
+        <v>0.0931</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3266,16 +3262,16 @@
         <v>132</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>3.443537</v>
+        <v>3.1646</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>0.3611</v>
+        <v>0.3403</v>
       </c>
       <c r="D127" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>9.537</v>
+        <v>9.301</v>
       </c>
       <c r="F127" s="0" t="s">
         <v>7</v>
@@ -3286,16 +3282,16 @@
         <v>133</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>4.012206</v>
+        <v>3.40537</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>0.4373</v>
+        <v>0.3475</v>
       </c>
       <c r="D128" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E128" s="0" t="n">
-        <v>9.176</v>
+        <v>9.8</v>
       </c>
       <c r="F128" s="0" t="s">
         <v>7</v>
@@ -3306,19 +3302,19 @@
         <v>134</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>-0.395383</v>
+        <v>-0.38176</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>0.0929</v>
+        <v>0.1051</v>
       </c>
       <c r="D129" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>-4.254</v>
+        <v>-3.634</v>
       </c>
       <c r="F129" s="0" t="n">
-        <v>0.0042</v>
+        <v>0.0405</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3326,16 +3322,16 @@
         <v>135</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>3.44336</v>
+        <v>3.3696</v>
       </c>
       <c r="C130" s="0" t="n">
-        <v>0.3901</v>
+        <v>0.4507</v>
       </c>
       <c r="D130" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>8.827</v>
+        <v>7.476</v>
       </c>
       <c r="F130" s="0" t="s">
         <v>7</v>
@@ -3346,19 +3342,19 @@
         <v>136</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>3.552645</v>
+        <v>4.76715</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>0.4098</v>
+        <v>1.026</v>
       </c>
       <c r="D131" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E131" s="0" t="n">
-        <v>8.668</v>
-      </c>
-      <c r="F131" s="0" t="s">
-        <v>7</v>
+        <v>4.646</v>
+      </c>
+      <c r="F131" s="0" t="n">
+        <v>0.0008</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3366,16 +3362,16 @@
         <v>137</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>1.762114</v>
+        <v>1.52288</v>
       </c>
       <c r="C132" s="0" t="n">
-        <v>0.1681</v>
+        <v>0.1908</v>
       </c>
       <c r="D132" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E132" s="0" t="n">
-        <v>10.485</v>
+        <v>7.981</v>
       </c>
       <c r="F132" s="0" t="s">
         <v>7</v>
@@ -3386,16 +3382,16 @@
         <v>138</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>2.699705</v>
+        <v>2.39114</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>0.265</v>
+        <v>0.1989</v>
       </c>
       <c r="D133" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>10.187</v>
+        <v>12.024</v>
       </c>
       <c r="F133" s="0" t="s">
         <v>7</v>
@@ -3406,16 +3402,16 @@
         <v>139</v>
       </c>
       <c r="B134" s="0" t="n">
-        <v>2.38847</v>
+        <v>1.68603</v>
       </c>
       <c r="C134" s="0" t="n">
-        <v>0.2934</v>
+        <v>0.1701</v>
       </c>
       <c r="D134" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E134" s="0" t="n">
-        <v>8.14</v>
+        <v>9.911</v>
       </c>
       <c r="F134" s="0" t="s">
         <v>7</v>
@@ -3426,16 +3422,16 @@
         <v>140</v>
       </c>
       <c r="B135" s="0" t="n">
-        <v>1.948496</v>
+        <v>2.52308</v>
       </c>
       <c r="C135" s="0" t="n">
-        <v>0.176</v>
+        <v>0.2821</v>
       </c>
       <c r="D135" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>11.068</v>
+        <v>8.943</v>
       </c>
       <c r="F135" s="0" t="s">
         <v>7</v>
@@ -3446,16 +3442,16 @@
         <v>141</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>2.635343</v>
+        <v>2.53249</v>
       </c>
       <c r="C136" s="0" t="n">
-        <v>0.2496</v>
+        <v>0.4777</v>
       </c>
       <c r="D136" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E136" s="0" t="n">
-        <v>10.556</v>
+        <v>5.301</v>
       </c>
       <c r="F136" s="0" t="s">
         <v>7</v>
@@ -3466,16 +3462,16 @@
         <v>142</v>
       </c>
       <c r="B137" s="0" t="n">
-        <v>3.257325</v>
+        <v>2.25663</v>
       </c>
       <c r="C137" s="0" t="n">
-        <v>0.3647</v>
+        <v>0.4229</v>
       </c>
       <c r="D137" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E137" s="0" t="n">
-        <v>8.932</v>
+        <v>5.336</v>
       </c>
       <c r="F137" s="0" t="s">
         <v>7</v>
@@ -3486,16 +3482,16 @@
         <v>143</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>3.825994</v>
+        <v>2.4974</v>
       </c>
       <c r="C138" s="0" t="n">
-        <v>0.4402</v>
+        <v>0.4287</v>
       </c>
       <c r="D138" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E138" s="0" t="n">
-        <v>8.691</v>
+        <v>5.825</v>
       </c>
       <c r="F138" s="0" t="s">
         <v>7</v>
@@ -3506,19 +3502,19 @@
         <v>144</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>-0.581595</v>
+        <v>-1.28973</v>
       </c>
       <c r="C139" s="0" t="n">
-        <v>0.1061</v>
+        <v>0.2723</v>
       </c>
       <c r="D139" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>-5.48</v>
-      </c>
-      <c r="F139" s="0" t="s">
-        <v>7</v>
+        <v>-4.737</v>
+      </c>
+      <c r="F139" s="0" t="n">
+        <v>0.0005</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3526,19 +3522,19 @@
         <v>145</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>3.257148</v>
+        <v>2.46163</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>0.3934</v>
+        <v>0.5159</v>
       </c>
       <c r="D140" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E140" s="0" t="n">
-        <v>8.279</v>
-      </c>
-      <c r="F140" s="0" t="s">
-        <v>7</v>
+        <v>4.771</v>
+      </c>
+      <c r="F140" s="0" t="n">
+        <v>0.0005</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3546,19 +3542,19 @@
         <v>146</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>3.366432</v>
+        <v>3.85918</v>
       </c>
       <c r="C141" s="0" t="n">
-        <v>0.413</v>
+        <v>1.0563</v>
       </c>
       <c r="D141" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>8.151</v>
-      </c>
-      <c r="F141" s="0" t="s">
-        <v>7</v>
+        <v>3.653</v>
+      </c>
+      <c r="F141" s="0" t="n">
+        <v>0.038</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3566,19 +3562,19 @@
         <v>147</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>1.575901</v>
+        <v>0.6149</v>
       </c>
       <c r="C142" s="0" t="n">
-        <v>0.1757</v>
+        <v>0.3154</v>
       </c>
       <c r="D142" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E142" s="0" t="n">
-        <v>8.97</v>
-      </c>
-      <c r="F142" s="0" t="s">
-        <v>7</v>
+        <v>1.949</v>
+      </c>
+      <c r="F142" s="0" t="n">
+        <v>0.9201</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3586,19 +3582,19 @@
         <v>148</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>2.513493</v>
+        <v>1.48317</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>0.2699</v>
+        <v>0.3204</v>
       </c>
       <c r="D143" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>9.312</v>
-      </c>
-      <c r="F143" s="0" t="s">
-        <v>7</v>
+        <v>4.63</v>
+      </c>
+      <c r="F143" s="0" t="n">
+        <v>0.0009</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3606,19 +3602,19 @@
         <v>149</v>
       </c>
       <c r="B144" s="0" t="n">
-        <v>2.202258</v>
+        <v>0.77806</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>0.2979</v>
+        <v>0.3034</v>
       </c>
       <c r="D144" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E144" s="0" t="n">
-        <v>7.393</v>
-      </c>
-      <c r="F144" s="0" t="s">
-        <v>7</v>
+        <v>2.565</v>
+      </c>
+      <c r="F144" s="0" t="n">
+        <v>0.5344</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3626,19 +3622,19 @@
         <v>150</v>
       </c>
       <c r="B145" s="0" t="n">
-        <v>1.762284</v>
+        <v>1.6151</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>0.1833</v>
+        <v>0.3777</v>
       </c>
       <c r="D145" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E145" s="0" t="n">
-        <v>9.612</v>
-      </c>
-      <c r="F145" s="0" t="s">
-        <v>7</v>
+        <v>4.276</v>
+      </c>
+      <c r="F145" s="0" t="n">
+        <v>0.0038</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3646,19 +3642,19 @@
         <v>151</v>
       </c>
       <c r="B146" s="0" t="n">
-        <v>2.449131</v>
+        <v>1.62452</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>0.2548</v>
+        <v>0.5397</v>
       </c>
       <c r="D146" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E146" s="0" t="n">
-        <v>9.61</v>
-      </c>
-      <c r="F146" s="0" t="s">
-        <v>7</v>
+        <v>3.01</v>
+      </c>
+      <c r="F146" s="0" t="n">
+        <v>0.2316</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3666,16 +3662,16 @@
         <v>152</v>
       </c>
       <c r="B147" s="0" t="n">
-        <v>0.568669</v>
+        <v>0.24077</v>
       </c>
       <c r="C147" s="0" t="n">
-        <v>0.5587</v>
+        <v>0.4703</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>1.018</v>
+        <v>0.512</v>
       </c>
       <c r="F147" s="0" t="n">
         <v>1</v>
@@ -3686,16 +3682,16 @@
         <v>153</v>
       </c>
       <c r="B148" s="0" t="n">
-        <v>-3.83892</v>
+        <v>-3.54636</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>0.3663</v>
+        <v>0.3421</v>
       </c>
       <c r="D148" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E148" s="0" t="n">
-        <v>-10.482</v>
+        <v>-10.368</v>
       </c>
       <c r="F148" s="0" t="s">
         <v>7</v>
@@ -3706,16 +3702,16 @@
         <v>154</v>
       </c>
       <c r="B149" s="0" t="n">
-        <v>-0.000177</v>
+        <v>0.205</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>0.5206</v>
+        <v>0.549</v>
       </c>
       <c r="D149" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>0</v>
+        <v>0.373</v>
       </c>
       <c r="F149" s="0" t="n">
         <v>1</v>
@@ -3726,19 +3722,19 @@
         <v>155</v>
       </c>
       <c r="B150" s="0" t="n">
-        <v>0.109107</v>
+        <v>1.60255</v>
       </c>
       <c r="C150" s="0" t="n">
-        <v>0.5354</v>
+        <v>1.0745</v>
       </c>
       <c r="D150" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E150" s="0" t="n">
-        <v>0.204</v>
+        <v>1.491</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>1</v>
+        <v>0.9951</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3746,19 +3742,19 @@
         <v>156</v>
       </c>
       <c r="B151" s="0" t="n">
-        <v>-1.681424</v>
+        <v>-1.64173</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>0.391</v>
+        <v>0.3764</v>
       </c>
       <c r="D151" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>-4.3</v>
+        <v>-4.361</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>0.0035</v>
+        <v>0.0027</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3766,19 +3762,19 @@
         <v>157</v>
       </c>
       <c r="B152" s="0" t="n">
-        <v>-0.743832</v>
+        <v>-0.77346</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>0.4379</v>
+        <v>0.3764</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E152" s="0" t="n">
-        <v>-1.699</v>
+        <v>-2.055</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>0.9786</v>
+        <v>0.8771</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3786,19 +3782,19 @@
         <v>158</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>-1.055067</v>
+        <v>-1.47857</v>
       </c>
       <c r="C153" s="0" t="n">
-        <v>0.4532</v>
+        <v>0.3661</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>-2.328</v>
+        <v>-4.039</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>0.7137</v>
+        <v>0.0097</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3806,19 +3802,19 @@
         <v>159</v>
       </c>
       <c r="B154" s="0" t="n">
-        <v>-1.495041</v>
+        <v>-0.64153</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>0.3942</v>
+        <v>0.4279</v>
       </c>
       <c r="D154" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E154" s="0" t="n">
-        <v>-3.792</v>
+        <v>-1.499</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>0.0237</v>
+        <v>0.9948</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3826,19 +3822,19 @@
         <v>160</v>
       </c>
       <c r="B155" s="0" t="n">
-        <v>-0.808194</v>
+        <v>-0.63211</v>
       </c>
       <c r="C155" s="0" t="n">
-        <v>0.4295</v>
+        <v>0.5735</v>
       </c>
       <c r="D155" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E155" s="0" t="n">
-        <v>-1.882</v>
+        <v>-1.102</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>0.9415</v>
+        <v>0.9999</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3846,16 +3842,16 @@
         <v>161</v>
       </c>
       <c r="B156" s="0" t="n">
-        <v>-4.407589</v>
+        <v>-3.78713</v>
       </c>
       <c r="C156" s="0" t="n">
-        <v>0.4416</v>
+        <v>0.3493</v>
       </c>
       <c r="D156" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E156" s="0" t="n">
-        <v>-9.982</v>
+        <v>-10.843</v>
       </c>
       <c r="F156" s="0" t="s">
         <v>7</v>
@@ -3866,16 +3862,16 @@
         <v>162</v>
       </c>
       <c r="B157" s="0" t="n">
-        <v>-0.568846</v>
+        <v>-0.03577</v>
       </c>
       <c r="C157" s="0" t="n">
-        <v>0.577</v>
+        <v>0.5533</v>
       </c>
       <c r="D157" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E157" s="0" t="n">
-        <v>-0.986</v>
+        <v>-0.065</v>
       </c>
       <c r="F157" s="0" t="n">
         <v>1</v>
@@ -3886,19 +3882,19 @@
         <v>163</v>
       </c>
       <c r="B158" s="0" t="n">
-        <v>-0.459562</v>
+        <v>1.36178</v>
       </c>
       <c r="C158" s="0" t="n">
-        <v>0.5903</v>
+        <v>1.0767</v>
       </c>
       <c r="D158" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E158" s="0" t="n">
-        <v>-0.778</v>
+        <v>1.265</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>1</v>
+        <v>0.9994</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3906,19 +3902,19 @@
         <v>164</v>
       </c>
       <c r="B159" s="0" t="n">
-        <v>-2.250093</v>
+        <v>-1.88249</v>
       </c>
       <c r="C159" s="0" t="n">
-        <v>0.4625</v>
+        <v>0.3829</v>
       </c>
       <c r="D159" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E159" s="0" t="n">
-        <v>-4.865</v>
+        <v>-4.916</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>0.0003</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3926,19 +3922,19 @@
         <v>165</v>
       </c>
       <c r="B160" s="0" t="n">
-        <v>-1.312501</v>
+        <v>-1.01423</v>
       </c>
       <c r="C160" s="0" t="n">
-        <v>0.5032</v>
+        <v>0.3828</v>
       </c>
       <c r="D160" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E160" s="0" t="n">
-        <v>-2.608</v>
+        <v>-2.65</v>
       </c>
       <c r="F160" s="0" t="n">
-        <v>0.5006</v>
+        <v>0.469</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3946,19 +3942,19 @@
         <v>166</v>
       </c>
       <c r="B161" s="0" t="n">
-        <v>-1.623736</v>
+        <v>-1.71934</v>
       </c>
       <c r="C161" s="0" t="n">
-        <v>0.5169</v>
+        <v>0.3727</v>
       </c>
       <c r="D161" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E161" s="0" t="n">
-        <v>-3.141</v>
+        <v>-4.613</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>0.169</v>
+        <v>0.0009</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3966,19 +3962,19 @@
         <v>167</v>
       </c>
       <c r="B162" s="0" t="n">
-        <v>-2.06371</v>
+        <v>-0.88229</v>
       </c>
       <c r="C162" s="0" t="n">
-        <v>0.4652</v>
+        <v>0.4336</v>
       </c>
       <c r="D162" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E162" s="0" t="n">
-        <v>-4.436</v>
+        <v>-2.035</v>
       </c>
       <c r="F162" s="0" t="n">
-        <v>0.002</v>
+        <v>0.8862</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3986,19 +3982,19 @@
         <v>168</v>
       </c>
       <c r="B163" s="0" t="n">
-        <v>-1.376863</v>
+        <v>-0.87288</v>
       </c>
       <c r="C163" s="0" t="n">
-        <v>0.4958</v>
+        <v>0.5777</v>
       </c>
       <c r="D163" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E163" s="0" t="n">
-        <v>-2.777</v>
+        <v>-1.511</v>
       </c>
       <c r="F163" s="0" t="n">
-        <v>0.3758</v>
+        <v>0.9943</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4006,16 +4002,16 @@
         <v>169</v>
       </c>
       <c r="B164" s="0" t="n">
-        <v>3.838743</v>
+        <v>3.75136</v>
       </c>
       <c r="C164" s="0" t="n">
-        <v>0.3949</v>
+        <v>0.4521</v>
       </c>
       <c r="D164" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E164" s="0" t="n">
-        <v>9.721</v>
+        <v>8.298</v>
       </c>
       <c r="F164" s="0" t="s">
         <v>7</v>
@@ -4026,19 +4022,19 @@
         <v>170</v>
       </c>
       <c r="B165" s="0" t="n">
-        <v>3.948027</v>
+        <v>5.14891</v>
       </c>
       <c r="C165" s="0" t="n">
-        <v>0.4144</v>
+        <v>1.0266</v>
       </c>
       <c r="D165" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E165" s="0" t="n">
-        <v>9.526</v>
-      </c>
-      <c r="F165" s="0" t="s">
-        <v>7</v>
+        <v>5.015</v>
+      </c>
+      <c r="F165" s="0" t="n">
+        <v>0.0001</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4046,16 +4042,16 @@
         <v>171</v>
       </c>
       <c r="B166" s="0" t="n">
-        <v>2.157496</v>
+        <v>1.90464</v>
       </c>
       <c r="C166" s="0" t="n">
-        <v>0.179</v>
+        <v>0.194</v>
       </c>
       <c r="D166" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E166" s="0" t="n">
-        <v>12.055</v>
+        <v>9.817</v>
       </c>
       <c r="F166" s="0" t="s">
         <v>7</v>
@@ -4066,16 +4062,16 @@
         <v>172</v>
       </c>
       <c r="B167" s="0" t="n">
-        <v>3.095088</v>
+        <v>2.7729</v>
       </c>
       <c r="C167" s="0" t="n">
-        <v>0.2721</v>
+        <v>0.2019</v>
       </c>
       <c r="D167" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E167" s="0" t="n">
-        <v>11.376</v>
+        <v>13.731</v>
       </c>
       <c r="F167" s="0" t="s">
         <v>7</v>
@@ -4086,16 +4082,16 @@
         <v>173</v>
       </c>
       <c r="B168" s="0" t="n">
-        <v>2.783853</v>
+        <v>2.06779</v>
       </c>
       <c r="C168" s="0" t="n">
-        <v>0.2998</v>
+        <v>0.1737</v>
       </c>
       <c r="D168" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E168" s="0" t="n">
-        <v>9.285</v>
+        <v>11.904</v>
       </c>
       <c r="F168" s="0" t="s">
         <v>7</v>
@@ -4106,16 +4102,16 @@
         <v>174</v>
       </c>
       <c r="B169" s="0" t="n">
-        <v>2.343879</v>
+        <v>2.90484</v>
       </c>
       <c r="C169" s="0" t="n">
-        <v>0.1865</v>
+        <v>0.2843</v>
       </c>
       <c r="D169" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E169" s="0" t="n">
-        <v>12.569</v>
+        <v>10.218</v>
       </c>
       <c r="F169" s="0" t="s">
         <v>7</v>
@@ -4126,16 +4122,16 @@
         <v>175</v>
       </c>
       <c r="B170" s="0" t="n">
-        <v>3.030726</v>
+        <v>2.91425</v>
       </c>
       <c r="C170" s="0" t="n">
-        <v>0.2571</v>
+        <v>0.479</v>
       </c>
       <c r="D170" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E170" s="0" t="n">
-        <v>11.787</v>
+        <v>6.084</v>
       </c>
       <c r="F170" s="0" t="s">
         <v>7</v>
@@ -4146,19 +4142,19 @@
         <v>176</v>
       </c>
       <c r="B171" s="0" t="n">
-        <v>0.109284</v>
+        <v>1.39755</v>
       </c>
       <c r="C171" s="0" t="n">
-        <v>0.5539</v>
+        <v>1.1136</v>
       </c>
       <c r="D171" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>0.197</v>
+        <v>1.255</v>
       </c>
       <c r="F171" s="0" t="n">
-        <v>1</v>
+        <v>0.9995</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4166,19 +4162,19 @@
         <v>177</v>
       </c>
       <c r="B172" s="0" t="n">
-        <v>-1.681247</v>
+        <v>-1.84672</v>
       </c>
       <c r="C172" s="0" t="n">
-        <v>0.4178</v>
+        <v>0.4783</v>
       </c>
       <c r="D172" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E172" s="0" t="n">
-        <v>-4.024</v>
+        <v>-3.861</v>
       </c>
       <c r="F172" s="0" t="n">
-        <v>0.0102</v>
+        <v>0.0186</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4186,19 +4182,19 @@
         <v>178</v>
       </c>
       <c r="B173" s="0" t="n">
-        <v>-0.743655</v>
+        <v>-0.97846</v>
       </c>
       <c r="C173" s="0" t="n">
-        <v>0.4611</v>
+        <v>0.4768</v>
       </c>
       <c r="D173" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E173" s="0" t="n">
-        <v>-1.613</v>
+        <v>-2.052</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>0.9878</v>
+        <v>0.8784</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4206,19 +4202,19 @@
         <v>179</v>
       </c>
       <c r="B174" s="0" t="n">
-        <v>-1.05489</v>
+        <v>-1.68357</v>
       </c>
       <c r="C174" s="0" t="n">
-        <v>0.4751</v>
+        <v>0.4701</v>
       </c>
       <c r="D174" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E174" s="0" t="n">
-        <v>-2.22</v>
+        <v>-3.582</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>0.7863</v>
+        <v>0.0479</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4226,19 +4222,19 @@
         <v>180</v>
       </c>
       <c r="B175" s="0" t="n">
-        <v>-1.494864</v>
+        <v>-0.84652</v>
       </c>
       <c r="C175" s="0" t="n">
-        <v>0.4207</v>
+        <v>0.519</v>
       </c>
       <c r="D175" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E175" s="0" t="n">
-        <v>-3.553</v>
+        <v>-1.631</v>
       </c>
       <c r="F175" s="0" t="n">
-        <v>0.0524</v>
+        <v>0.9862</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4246,19 +4242,19 @@
         <v>181</v>
       </c>
       <c r="B176" s="0" t="n">
-        <v>-0.808017</v>
+        <v>-0.83711</v>
       </c>
       <c r="C176" s="0" t="n">
-        <v>0.4533</v>
+        <v>0.6435</v>
       </c>
       <c r="D176" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E176" s="0" t="n">
-        <v>-1.782</v>
+        <v>-1.301</v>
       </c>
       <c r="F176" s="0" t="n">
-        <v>0.965</v>
+        <v>0.9992</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4266,19 +4262,19 @@
         <v>182</v>
       </c>
       <c r="B177" s="0" t="n">
-        <v>-1.790531</v>
+        <v>-3.24427</v>
       </c>
       <c r="C177" s="0" t="n">
-        <v>0.4362</v>
+        <v>1.0386</v>
       </c>
       <c r="D177" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E177" s="0" t="n">
-        <v>-4.105</v>
+        <v>-3.124</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>0.0075</v>
+        <v>0.1767</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4286,19 +4282,19 @@
         <v>183</v>
       </c>
       <c r="B178" s="0" t="n">
-        <v>-0.85294</v>
+        <v>-2.37601</v>
       </c>
       <c r="C178" s="0" t="n">
-        <v>0.4778</v>
+        <v>1.039</v>
       </c>
       <c r="D178" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E178" s="0" t="n">
-        <v>-1.785</v>
+        <v>-2.287</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>0.9644</v>
+        <v>0.7425</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4306,19 +4302,19 @@
         <v>184</v>
       </c>
       <c r="B179" s="0" t="n">
-        <v>-1.164174</v>
+        <v>-3.08112</v>
       </c>
       <c r="C179" s="0" t="n">
-        <v>0.4912</v>
+        <v>1.035</v>
       </c>
       <c r="D179" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E179" s="0" t="n">
-        <v>-2.37</v>
+        <v>-2.977</v>
       </c>
       <c r="F179" s="0" t="n">
-        <v>0.6832</v>
+        <v>0.2496</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4326,19 +4322,19 @@
         <v>185</v>
       </c>
       <c r="B180" s="0" t="n">
-        <v>-1.604148</v>
+        <v>-2.24407</v>
       </c>
       <c r="C180" s="0" t="n">
-        <v>0.439</v>
+        <v>1.0586</v>
       </c>
       <c r="D180" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E180" s="0" t="n">
-        <v>-3.654</v>
+        <v>-2.12</v>
       </c>
       <c r="F180" s="0" t="n">
-        <v>0.0379</v>
+        <v>0.8447</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4346,19 +4342,19 @@
         <v>186</v>
       </c>
       <c r="B181" s="0" t="n">
-        <v>-0.917301</v>
+        <v>-2.23466</v>
       </c>
       <c r="C181" s="0" t="n">
-        <v>0.4703</v>
+        <v>1.1257</v>
       </c>
       <c r="D181" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E181" s="0" t="n">
-        <v>-1.951</v>
+        <v>-1.985</v>
       </c>
       <c r="F181" s="0" t="n">
-        <v>0.9196</v>
+        <v>0.9068</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4366,19 +4362,19 @@
         <v>187</v>
       </c>
       <c r="B182" s="0" t="n">
-        <v>0.937591</v>
+        <v>0.86826</v>
       </c>
       <c r="C182" s="0" t="n">
-        <v>0.305</v>
+        <v>0.2562</v>
       </c>
       <c r="D182" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E182" s="0" t="n">
-        <v>3.074</v>
+        <v>3.388</v>
       </c>
       <c r="F182" s="0" t="n">
-        <v>0.1992</v>
+        <v>0.0864</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4386,19 +4382,19 @@
         <v>188</v>
       </c>
       <c r="B183" s="0" t="n">
-        <v>0.626357</v>
+        <v>0.16315</v>
       </c>
       <c r="C183" s="0" t="n">
-        <v>0.3294</v>
+        <v>0.2354</v>
       </c>
       <c r="D183" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E183" s="0" t="n">
-        <v>1.901</v>
+        <v>0.693</v>
       </c>
       <c r="F183" s="0" t="n">
-        <v>0.9358</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4406,19 +4402,19 @@
         <v>189</v>
       </c>
       <c r="B184" s="0" t="n">
-        <v>0.186383</v>
+        <v>1.0002</v>
       </c>
       <c r="C184" s="0" t="n">
-        <v>0.2328</v>
+        <v>0.3254</v>
       </c>
       <c r="D184" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E184" s="0" t="n">
-        <v>0.8</v>
+        <v>3.074</v>
       </c>
       <c r="F184" s="0" t="n">
-        <v>1</v>
+        <v>0.1995</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4426,19 +4422,19 @@
         <v>190</v>
       </c>
       <c r="B185" s="0" t="n">
-        <v>0.87323</v>
+        <v>1.00961</v>
       </c>
       <c r="C185" s="0" t="n">
-        <v>0.2919</v>
+        <v>0.5041</v>
       </c>
       <c r="D185" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E185" s="0" t="n">
-        <v>2.992</v>
+        <v>2.003</v>
       </c>
       <c r="F185" s="0" t="n">
-        <v>0.2415</v>
+        <v>0.8999</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4446,19 +4442,19 @@
         <v>191</v>
       </c>
       <c r="B186" s="0" t="n">
-        <v>-0.311235</v>
+        <v>-0.70511</v>
       </c>
       <c r="C186" s="0" t="n">
-        <v>0.3832</v>
+        <v>0.2409</v>
       </c>
       <c r="D186" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E186" s="0" t="n">
-        <v>-0.812</v>
+        <v>-2.927</v>
       </c>
       <c r="F186" s="0" t="n">
-        <v>1</v>
+        <v>0.2784</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4466,19 +4462,19 @@
         <v>192</v>
       </c>
       <c r="B187" s="0" t="n">
-        <v>-0.751209</v>
+        <v>0.13193</v>
       </c>
       <c r="C187" s="0" t="n">
-        <v>0.3092</v>
+        <v>0.328</v>
       </c>
       <c r="D187" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E187" s="0" t="n">
-        <v>-2.43</v>
+        <v>0.402</v>
       </c>
       <c r="F187" s="0" t="n">
-        <v>0.6386</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4486,16 +4482,16 @@
         <v>193</v>
       </c>
       <c r="B188" s="0" t="n">
-        <v>-0.064362</v>
+        <v>0.14135</v>
       </c>
       <c r="C188" s="0" t="n">
-        <v>0.3539</v>
+        <v>0.5042</v>
       </c>
       <c r="D188" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E188" s="0" t="n">
-        <v>-0.182</v>
+        <v>0.28</v>
       </c>
       <c r="F188" s="0" t="n">
         <v>1</v>
@@ -4506,19 +4502,19 @@
         <v>194</v>
       </c>
       <c r="B189" s="0" t="n">
-        <v>-0.439974</v>
+        <v>0.83705</v>
       </c>
       <c r="C189" s="0" t="n">
-        <v>0.3332</v>
+        <v>0.3135</v>
       </c>
       <c r="D189" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E189" s="0" t="n">
-        <v>-1.321</v>
+        <v>2.67</v>
       </c>
       <c r="F189" s="0" t="n">
-        <v>0.999</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4526,19 +4522,19 @@
         <v>195</v>
       </c>
       <c r="B190" s="0" t="n">
-        <v>0.246873</v>
+        <v>0.84646</v>
       </c>
       <c r="C190" s="0" t="n">
-        <v>0.3737</v>
+        <v>0.4964</v>
       </c>
       <c r="D190" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E190" s="0" t="n">
-        <v>0.661</v>
+        <v>1.705</v>
       </c>
       <c r="F190" s="0" t="n">
-        <v>1</v>
+        <v>0.9777</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4546,19 +4542,19 @@
         <v>196</v>
       </c>
       <c r="B191" s="0" t="n">
-        <v>0.686847</v>
+        <v>0.00941</v>
       </c>
       <c r="C191" s="0" t="n">
-        <v>0.2963</v>
+        <v>0.5437</v>
       </c>
       <c r="D191" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E191" s="0" t="n">
-        <v>2.318</v>
+        <v>0.017</v>
       </c>
       <c r="F191" s="0" t="n">
-        <v>0.7208</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4579,8 +4575,8 @@
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4613,16 +4609,16 @@
         <v>11</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>-0.605961</v>
+        <v>-0.64418</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0.0602</v>
+        <v>0.0596</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>-10.07</v>
+        <v>-10.804</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>7</v>
@@ -4633,16 +4629,16 @@
         <v>16</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>3.552333</v>
+        <v>3.41546</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0.3611</v>
+        <v>0.3365</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>9.839</v>
+        <v>10.151</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>7</v>
@@ -4653,16 +4649,16 @@
         <v>21</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>1.870909</v>
+        <v>1.77374</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.1681</v>
+        <v>0.1839</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>11.131</v>
+        <v>9.643</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>7</v>
@@ -4673,19 +4669,19 @@
         <v>30</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>-0.416395</v>
+        <v>-0.16565</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0.0496</v>
+        <v>0.0408</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>-8.394</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>7</v>
+        <v>-4.064</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0.0088</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4693,16 +4689,16 @@
         <v>35</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>4.635551</v>
+        <v>4.19213</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>0.436</v>
+        <v>0.3417</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>10.631</v>
+        <v>12.267</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>7</v>
@@ -4713,16 +4709,16 @@
         <v>40</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>3.32305</v>
+        <v>3.1779</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>0.263</v>
+        <v>0.1887</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>12.634</v>
+        <v>16.845</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>7</v>
@@ -4733,16 +4729,16 @@
         <v>48</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0.298749</v>
+        <v>0.71788</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>0.0553</v>
+        <v>0.0506</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>5.401</v>
+        <v>14.196</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>7</v>
@@ -4753,19 +4749,19 @@
         <v>53</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0.373162</v>
+        <v>0.62875</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>0.0864</v>
+        <v>0.0817</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>4.318</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>0.0032</v>
+        <v>7.693</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4773,16 +4769,16 @@
         <v>58</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>3.157015</v>
+        <v>2.69654</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>0.2914</v>
+        <v>0.1568</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>10.833</v>
+        <v>17.198</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>7</v>
@@ -4793,16 +4789,16 @@
         <v>65</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>0.907514</v>
+        <v>0.58383</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>0.0584</v>
+        <v>0.0931</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>15.549</v>
+        <v>6.273</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>7</v>
@@ -4813,16 +4809,16 @@
         <v>70</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>4.350874</v>
+        <v>3.95343</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>0.3882</v>
+        <v>0.4494</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>11.207</v>
+        <v>8.797</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>7</v>
@@ -4833,16 +4829,16 @@
         <v>75</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>2.85601</v>
+        <v>3.1069</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0.1719</v>
+        <v>0.2801</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>16.616</v>
+        <v>11.093</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>7</v>
@@ -4853,39 +4849,39 @@
         <v>81</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>0.723544</v>
+        <v>1.54309</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0.0809</v>
+        <v>0.3108</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>8.942</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+        <v>4.965</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0.0002</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="1" t="n">
-        <v>4.089977</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>0.4087</v>
-      </c>
-      <c r="D15" s="1" t="n">
-        <v>394</v>
-      </c>
-      <c r="E15" s="1" t="n">
-        <v>10.007</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>7</v>
+      <c r="B15" s="0" t="n">
+        <v>5.40227</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1.0375</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>394</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>5.207</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0.0001</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4893,16 +4889,16 @@
         <v>91</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>3.172675</v>
+        <v>3.16761</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0.2478</v>
+        <v>0.5019</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>12.805</v>
+        <v>6.312</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>7</v>
@@ -4913,16 +4909,16 @@
         <v>96</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>4.158294</v>
+        <v>4.05964</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>0.3593</v>
+        <v>0.3348</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>11.572</v>
+        <v>12.125</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>7</v>
@@ -4933,16 +4929,16 @@
         <v>101</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>2.47687</v>
+        <v>2.41792</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>0.1643</v>
+        <v>0.1809</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>15.072</v>
+        <v>13.365</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>7</v>
@@ -4953,16 +4949,16 @@
         <v>110</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>5.051946</v>
+        <v>4.35778</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>0.4357</v>
+        <v>0.3414</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>11.595</v>
+        <v>12.764</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>7</v>
@@ -4973,16 +4969,16 @@
         <v>115</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>3.739445</v>
+        <v>3.34355</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>0.2625</v>
+        <v>0.1881</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>14.247</v>
+        <v>17.779</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>7</v>
@@ -4993,16 +4989,16 @@
         <v>123</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>0.074413</v>
+        <v>-0.08913</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>0.0895</v>
+        <v>0.0903</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>0.831</v>
+        <v>-0.987</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>1</v>
@@ -5013,16 +5009,16 @@
         <v>128</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>2.858266</v>
+        <v>1.97866</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>0.2924</v>
+        <v>0.1614</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>9.776</v>
+        <v>12.259</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>7</v>
@@ -5033,16 +5029,16 @@
         <v>135</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>3.44336</v>
+        <v>3.3696</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>0.3901</v>
+        <v>0.4507</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>8.827</v>
+        <v>7.476</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>7</v>
@@ -5053,16 +5049,16 @@
         <v>140</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>1.948496</v>
+        <v>2.52308</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>0.176</v>
+        <v>0.2821</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>11.068</v>
+        <v>8.943</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>7</v>
@@ -5073,19 +5069,19 @@
         <v>146</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>3.366432</v>
+        <v>3.85918</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>0.413</v>
+        <v>1.0563</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>8.151</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>7</v>
+        <v>3.653</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>0.038</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5093,19 +5089,19 @@
         <v>151</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>2.449131</v>
+        <v>1.62452</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>0.2548</v>
+        <v>0.5397</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>9.61</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>7</v>
+        <v>3.01</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>0.2316</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5113,19 +5109,19 @@
         <v>156</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>-1.681424</v>
+        <v>-1.64173</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>0.391</v>
+        <v>0.3764</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>-4.3</v>
+        <v>-4.361</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0.0035</v>
+        <v>0.0027</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5133,19 +5129,19 @@
         <v>165</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>-1.312501</v>
+        <v>-1.01423</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>0.5032</v>
+        <v>0.3828</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>-2.608</v>
+        <v>-2.65</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0.5006</v>
+        <v>0.469</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5153,16 +5149,16 @@
         <v>173</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>2.783853</v>
+        <v>2.06779</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>0.2998</v>
+        <v>0.1737</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>9.285</v>
+        <v>11.904</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>7</v>
@@ -5173,19 +5169,19 @@
         <v>180</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>-1.494864</v>
+        <v>-0.84652</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>0.4207</v>
+        <v>0.519</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>-3.553</v>
+        <v>-1.631</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>0.0524</v>
+        <v>0.9862</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5193,19 +5189,19 @@
         <v>186</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>-0.917301</v>
+        <v>-2.23466</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>0.4703</v>
+        <v>1.1257</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>394</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>-1.951</v>
+        <v>-1.985</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>0.9196</v>
+        <v>0.9068</v>
       </c>
     </row>
   </sheetData>
@@ -5226,7 +5222,7 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/results/noca_day_binn_results.xlsx
+++ b/results/noca_day_binn_results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="aridity_gradient_full_tukey" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="512">
   <si>
     <t xml:space="preserve">contrast</t>
   </si>
@@ -40,6 +40,9 @@
     <t xml:space="preserve">     p adj</t>
   </si>
   <si>
+    <t xml:space="preserve">significance</t>
+  </si>
+  <si>
     <t xml:space="preserve">2:lwma-1:lwma</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t xml:space="preserve">1:sswma-1:lwma</t>
   </si>
   <si>
+    <t xml:space="preserve">.</t>
+  </si>
+  <si>
     <t xml:space="preserve">2:sswma-1:lwma</t>
   </si>
   <si>
@@ -121,9 +127,15 @@
     <t xml:space="preserve">5:sswma-2:lwma</t>
   </si>
   <si>
+    <t xml:space="preserve">*</t>
+  </si>
+  <si>
     <t xml:space="preserve">1:cbma-2:lwma</t>
   </si>
   <si>
+    <t xml:space="preserve">***</t>
+  </si>
+  <si>
     <t xml:space="preserve">2:cbma-2:lwma</t>
   </si>
   <si>
@@ -134,6 +146,9 @@
   </si>
   <si>
     <t xml:space="preserve">5:cbma-2:lwma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**</t>
   </si>
   <si>
     <t xml:space="preserve">1:kiowa-2:lwma</t>
@@ -1645,15 +1660,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E191"/>
+  <dimension ref="A1:F191"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A173" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B185" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A178" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A123" activeCellId="0" sqref="A123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.32"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1672,10 +1687,13 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>20.72307692</v>
@@ -1692,7 +1710,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>22.05</v>
@@ -1709,7 +1727,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>14.48181818</v>
@@ -1726,7 +1744,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>14.3</v>
@@ -1743,7 +1761,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>30.6125</v>
@@ -1757,10 +1775,13 @@
       <c r="E6" s="0" t="n">
         <v>0.0499216</v>
       </c>
+      <c r="F6" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>17.2</v>
@@ -1777,7 +1798,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>2.55</v>
@@ -1794,7 +1815,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>-6.9</v>
@@ -1811,7 +1832,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>-18.45</v>
@@ -1828,7 +1849,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>-20.33636364</v>
@@ -1845,7 +1866,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>-20.41428571</v>
@@ -1862,7 +1883,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>-14.31538462</v>
@@ -1879,7 +1900,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>-20.2</v>
@@ -1896,7 +1917,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>-20.6</v>
@@ -1913,7 +1934,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>-18.61304348</v>
@@ -1930,7 +1951,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>-19.575</v>
@@ -1947,7 +1968,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>-18.98571429</v>
@@ -1964,7 +1985,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>-19.97272727</v>
@@ -1981,7 +2002,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>-19.81111111</v>
@@ -1998,7 +2019,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>1.32692308</v>
@@ -2015,7 +2036,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>-6.24125874</v>
@@ -2032,7 +2053,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>-6.42307692</v>
@@ -2049,7 +2070,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>9.88942308</v>
@@ -2066,7 +2087,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>-3.52307692</v>
@@ -2083,7 +2104,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>-18.17307692</v>
@@ -2100,7 +2121,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>-27.62307692</v>
@@ -2117,7 +2138,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>-39.17307692</v>
@@ -2131,10 +2152,13 @@
       <c r="E28" s="0" t="n">
         <v>0.0240324</v>
       </c>
+      <c r="F28" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>-41.05944056</v>
@@ -2148,10 +2172,13 @@
       <c r="E29" s="0" t="n">
         <v>1.01E-005</v>
       </c>
+      <c r="F29" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>-41.13736264</v>
@@ -2165,10 +2192,13 @@
       <c r="E30" s="0" t="n">
         <v>1.4E-006</v>
       </c>
+      <c r="F30" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>-35.03846154</v>
@@ -2182,10 +2212,13 @@
       <c r="E31" s="0" t="n">
         <v>0.0002052</v>
       </c>
+      <c r="F31" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>-40.92307692</v>
@@ -2199,10 +2232,13 @@
       <c r="E32" s="0" t="n">
         <v>1.11E-005</v>
       </c>
+      <c r="F32" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>-41.32307692</v>
@@ -2216,10 +2252,13 @@
       <c r="E33" s="0" t="n">
         <v>0.0029103</v>
       </c>
+      <c r="F33" s="0" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>-39.3361204</v>
@@ -2233,10 +2272,13 @@
       <c r="E34" s="0" t="n">
         <v>2.42E-005</v>
       </c>
+      <c r="F34" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>-40.29807692</v>
@@ -2250,10 +2292,13 @@
       <c r="E35" s="0" t="n">
         <v>2E-007</v>
       </c>
+      <c r="F35" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>-39.70879121</v>
@@ -2267,10 +2312,13 @@
       <c r="E36" s="0" t="n">
         <v>4.3E-006</v>
       </c>
+      <c r="F36" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>-40.6958042</v>
@@ -2284,10 +2332,13 @@
       <c r="E37" s="0" t="n">
         <v>0.0020684</v>
       </c>
+      <c r="F37" s="0" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>-40.53418803</v>
@@ -2301,10 +2352,13 @@
       <c r="E38" s="0" t="n">
         <v>0.0077195</v>
       </c>
+      <c r="F38" s="0" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>-7.56818182</v>
@@ -2321,7 +2375,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>-7.75</v>
@@ -2338,7 +2392,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>8.5625</v>
@@ -2355,7 +2409,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>-4.85</v>
@@ -2372,7 +2426,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>-19.5</v>
@@ -2389,7 +2443,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>-28.95</v>
@@ -2403,10 +2457,13 @@
       <c r="E44" s="0" t="n">
         <v>0.028516</v>
       </c>
+      <c r="F44" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>-40.5</v>
@@ -2420,10 +2477,13 @@
       <c r="E45" s="0" t="n">
         <v>0.0080007</v>
       </c>
+      <c r="F45" s="0" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>-42.38636364</v>
@@ -2437,10 +2497,13 @@
       <c r="E46" s="0" t="n">
         <v>2E-007</v>
       </c>
+      <c r="F46" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>-42.46428571</v>
@@ -2454,10 +2517,13 @@
       <c r="E47" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F47" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>-36.36538462</v>
@@ -2471,10 +2537,13 @@
       <c r="E48" s="0" t="n">
         <v>5.9E-006</v>
       </c>
+      <c r="F48" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>-42.25</v>
@@ -2488,10 +2557,13 @@
       <c r="E49" s="0" t="n">
         <v>2E-007</v>
       </c>
+      <c r="F49" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>-42.65</v>
@@ -2505,10 +2577,13 @@
       <c r="E50" s="0" t="n">
         <v>0.0005753</v>
       </c>
+      <c r="F50" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>-40.66304348</v>
@@ -2522,10 +2597,13 @@
       <c r="E51" s="0" t="n">
         <v>5E-007</v>
       </c>
+      <c r="F51" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>-41.625</v>
@@ -2539,10 +2617,13 @@
       <c r="E52" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F52" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>-41.03571429</v>
@@ -2556,10 +2637,13 @@
       <c r="E53" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F53" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>-42.02272727</v>
@@ -2573,10 +2657,13 @@
       <c r="E54" s="0" t="n">
         <v>0.0003488</v>
       </c>
+      <c r="F54" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>-41.86111111</v>
@@ -2590,10 +2677,13 @@
       <c r="E55" s="0" t="n">
         <v>0.0019614</v>
       </c>
+      <c r="F55" s="0" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>-0.18181818</v>
@@ -2610,7 +2700,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>16.13068182</v>
@@ -2627,7 +2717,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>2.71818182</v>
@@ -2644,7 +2734,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>-11.93181818</v>
@@ -2661,7 +2751,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>-21.38181818</v>
@@ -2678,7 +2768,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>-32.93181818</v>
@@ -2695,7 +2785,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>-34.81818182</v>
@@ -2709,10 +2799,13 @@
       <c r="E62" s="0" t="n">
         <v>0.0339865</v>
       </c>
+      <c r="F62" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>-34.8961039</v>
@@ -2726,10 +2819,13 @@
       <c r="E63" s="0" t="n">
         <v>0.0204564</v>
       </c>
+      <c r="F63" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B64" s="1" t="n">
         <v>-28.7972028</v>
@@ -2746,7 +2842,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B65" s="1" t="n">
         <v>-34.68181818</v>
@@ -2760,10 +2856,13 @@
       <c r="E65" s="0" t="n">
         <v>0.0356597</v>
       </c>
+      <c r="F65" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B66" s="1" t="n">
         <v>-35.08181818</v>
@@ -2780,7 +2879,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>-33.09486166</v>
@@ -2794,10 +2893,13 @@
       <c r="E67" s="0" t="n">
         <v>0.0563952</v>
       </c>
+      <c r="F67" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>-34.05681818</v>
@@ -2811,10 +2913,13 @@
       <c r="E68" s="0" t="n">
         <v>0.0155304</v>
       </c>
+      <c r="F68" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>-33.46753247</v>
@@ -2828,10 +2933,13 @@
       <c r="E69" s="0" t="n">
         <v>0.0350494</v>
       </c>
+      <c r="F69" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B70" s="1" t="n">
         <v>-34.45454545</v>
@@ -2848,7 +2956,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>-34.29292929</v>
@@ -2865,7 +2973,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>16.3125</v>
@@ -2882,7 +2990,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>2.9</v>
@@ -2899,7 +3007,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>-11.75</v>
@@ -2916,7 +3024,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B75" s="1" t="n">
         <v>-21.2</v>
@@ -2933,7 +3041,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B76" s="1" t="n">
         <v>-32.75</v>
@@ -2950,7 +3058,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B77" s="1" t="n">
         <v>-34.63636364</v>
@@ -2967,7 +3075,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B78" s="1" t="n">
         <v>-34.71428571</v>
@@ -2984,7 +3092,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B79" s="1" t="n">
         <v>-28.61538462</v>
@@ -3001,7 +3109,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B80" s="1" t="n">
         <v>-34.5</v>
@@ -3018,7 +3126,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B81" s="1" t="n">
         <v>-34.9</v>
@@ -3035,7 +3143,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B82" s="1" t="n">
         <v>-32.91304348</v>
@@ -3052,7 +3160,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B83" s="1" t="n">
         <v>-33.875</v>
@@ -3069,7 +3177,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B84" s="1" t="n">
         <v>-33.28571429</v>
@@ -3086,7 +3194,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B85" s="1" t="n">
         <v>-34.27272727</v>
@@ -3103,7 +3211,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B86" s="1" t="n">
         <v>-34.11111111</v>
@@ -3120,7 +3228,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B87" s="1" t="n">
         <v>-13.4125</v>
@@ -3137,7 +3245,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B88" s="1" t="n">
         <v>-28.0625</v>
@@ -3151,10 +3259,13 @@
       <c r="E88" s="0" t="n">
         <v>0.047597</v>
       </c>
+      <c r="F88" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B89" s="1" t="n">
         <v>-37.5125</v>
@@ -3168,10 +3279,13 @@
       <c r="E89" s="0" t="n">
         <v>0.0082379</v>
       </c>
+      <c r="F89" s="0" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B90" s="1" t="n">
         <v>-49.0625</v>
@@ -3185,10 +3299,13 @@
       <c r="E90" s="0" t="n">
         <v>0.0020141</v>
       </c>
+      <c r="F90" s="0" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B91" s="1" t="n">
         <v>-50.94886364</v>
@@ -3202,10 +3319,13 @@
       <c r="E91" s="0" t="n">
         <v>6E-007</v>
       </c>
+      <c r="F91" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B92" s="1" t="n">
         <v>-51.02678571</v>
@@ -3219,10 +3339,13 @@
       <c r="E92" s="0" t="n">
         <v>1E-007</v>
       </c>
+      <c r="F92" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B93" s="1" t="n">
         <v>-44.92788462</v>
@@ -3236,10 +3359,13 @@
       <c r="E93" s="0" t="n">
         <v>1.08E-005</v>
       </c>
+      <c r="F93" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B94" s="1" t="n">
         <v>-50.8125</v>
@@ -3253,10 +3379,13 @@
       <c r="E94" s="0" t="n">
         <v>6E-007</v>
       </c>
+      <c r="F94" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B95" s="1" t="n">
         <v>-51.2125</v>
@@ -3270,10 +3399,13 @@
       <c r="E95" s="0" t="n">
         <v>0.0001799</v>
       </c>
+      <c r="F95" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B96" s="1" t="n">
         <v>-49.22554348</v>
@@ -3287,10 +3419,13 @@
       <c r="E96" s="0" t="n">
         <v>1.4E-006</v>
       </c>
+      <c r="F96" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B97" s="1" t="n">
         <v>-50.1875</v>
@@ -3304,10 +3439,13 @@
       <c r="E97" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F97" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B98" s="1" t="n">
         <v>-49.59821429</v>
@@ -3321,10 +3459,13 @@
       <c r="E98" s="0" t="n">
         <v>3E-007</v>
       </c>
+      <c r="F98" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B99" s="1" t="n">
         <v>-50.58522727</v>
@@ -3338,10 +3479,13 @@
       <c r="E99" s="0" t="n">
         <v>0.0001211</v>
       </c>
+      <c r="F99" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B100" s="1" t="n">
         <v>-50.42361111</v>
@@ -3355,10 +3499,13 @@
       <c r="E100" s="0" t="n">
         <v>0.0005374</v>
       </c>
+      <c r="F100" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B101" s="1" t="n">
         <v>-14.65</v>
@@ -3375,7 +3522,7 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B102" s="1" t="n">
         <v>-24.1</v>
@@ -3392,7 +3539,7 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B103" s="1" t="n">
         <v>-35.65</v>
@@ -3406,10 +3553,13 @@
       <c r="E103" s="0" t="n">
         <v>0.0612773</v>
       </c>
+      <c r="F103" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B104" s="1" t="n">
         <v>-37.53636364</v>
@@ -3423,10 +3573,13 @@
       <c r="E104" s="0" t="n">
         <v>5.03E-005</v>
       </c>
+      <c r="F104" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B105" s="1" t="n">
         <v>-37.61428571</v>
@@ -3440,10 +3593,13 @@
       <c r="E105" s="0" t="n">
         <v>7.5E-006</v>
       </c>
+      <c r="F105" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B106" s="1" t="n">
         <v>-31.51538462</v>
@@ -3457,10 +3613,13 @@
       <c r="E106" s="0" t="n">
         <v>0.000973</v>
       </c>
+      <c r="F106" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B107" s="1" t="n">
         <v>-37.4</v>
@@ -3474,10 +3633,13 @@
       <c r="E107" s="0" t="n">
         <v>5.53E-005</v>
       </c>
+      <c r="F107" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B108" s="1" t="n">
         <v>-37.8</v>
@@ -3491,10 +3653,13 @@
       <c r="E108" s="0" t="n">
         <v>0.0093609</v>
       </c>
+      <c r="F108" s="0" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B109" s="1" t="n">
         <v>-35.81304348</v>
@@ -3508,10 +3673,13 @@
       <c r="E109" s="0" t="n">
         <v>0.0001196</v>
       </c>
+      <c r="F109" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B110" s="1" t="n">
         <v>-36.775</v>
@@ -3525,10 +3693,13 @@
       <c r="E110" s="0" t="n">
         <v>1.1E-006</v>
       </c>
+      <c r="F110" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B111" s="1" t="n">
         <v>-36.18571429</v>
@@ -3542,10 +3713,13 @@
       <c r="E111" s="0" t="n">
         <v>2.29E-005</v>
       </c>
+      <c r="F111" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B112" s="1" t="n">
         <v>-37.17272727</v>
@@ -3559,10 +3733,13 @@
       <c r="E112" s="0" t="n">
         <v>0.0069939</v>
       </c>
+      <c r="F112" s="0" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B113" s="1" t="n">
         <v>-37.01111111</v>
@@ -3576,10 +3753,13 @@
       <c r="E113" s="0" t="n">
         <v>0.0224722</v>
       </c>
+      <c r="F113" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B114" s="1" t="n">
         <v>-9.45</v>
@@ -3596,7 +3776,7 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B115" s="1" t="n">
         <v>-21</v>
@@ -3613,7 +3793,7 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B116" s="1" t="n">
         <v>-22.88636364</v>
@@ -3630,7 +3810,7 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B117" s="1" t="n">
         <v>-22.96428571</v>
@@ -3644,10 +3824,13 @@
       <c r="E117" s="0" t="n">
         <v>0.0678314</v>
       </c>
+      <c r="F117" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B118" s="1" t="n">
         <v>-16.86538462</v>
@@ -3664,7 +3847,7 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B119" s="1" t="n">
         <v>-22.75</v>
@@ -3681,7 +3864,7 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B120" s="1" t="n">
         <v>-23.15</v>
@@ -3698,7 +3881,7 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B121" s="1" t="n">
         <v>-21.16304348</v>
@@ -3715,7 +3898,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B122" s="1" t="n">
         <v>-22.125</v>
@@ -3729,10 +3912,13 @@
       <c r="E122" s="0" t="n">
         <v>0.0386892</v>
       </c>
+      <c r="F122" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B123" s="1" t="n">
         <v>-21.53571429</v>
@@ -3749,7 +3935,7 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B124" s="1" t="n">
         <v>-22.52272727</v>
@@ -3766,7 +3952,7 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B125" s="1" t="n">
         <v>-22.36111111</v>
@@ -3783,7 +3969,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B126" s="1" t="n">
         <v>-11.55</v>
@@ -3800,7 +3986,7 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B127" s="1" t="n">
         <v>-13.43636364</v>
@@ -3817,7 +4003,7 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B128" s="1" t="n">
         <v>-13.51428571</v>
@@ -3834,7 +4020,7 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B129" s="1" t="n">
         <v>-7.41538462</v>
@@ -3851,7 +4037,7 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B130" s="1" t="n">
         <v>-13.3</v>
@@ -3868,7 +4054,7 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B131" s="1" t="n">
         <v>-13.7</v>
@@ -3885,7 +4071,7 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B132" s="1" t="n">
         <v>-11.71304348</v>
@@ -3902,7 +4088,7 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B133" s="1" t="n">
         <v>-12.675</v>
@@ -3919,7 +4105,7 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B134" s="1" t="n">
         <v>-12.08571429</v>
@@ -3936,7 +4122,7 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B135" s="1" t="n">
         <v>-13.07272727</v>
@@ -3953,7 +4139,7 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B136" s="1" t="n">
         <v>-12.91111111</v>
@@ -3970,7 +4156,7 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B137" s="1" t="n">
         <v>-1.88636364</v>
@@ -3987,7 +4173,7 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B138" s="1" t="n">
         <v>-1.96428571</v>
@@ -4004,7 +4190,7 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B139" s="1" t="n">
         <v>4.13461538</v>
@@ -4021,7 +4207,7 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B140" s="1" t="n">
         <v>-1.75</v>
@@ -4038,7 +4224,7 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B141" s="1" t="n">
         <v>-2.15</v>
@@ -4055,7 +4241,7 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B142" s="1" t="n">
         <v>-0.16304348</v>
@@ -4072,7 +4258,7 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B143" s="1" t="n">
         <v>-1.125</v>
@@ -4089,7 +4275,7 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B144" s="1" t="n">
         <v>-0.53571429</v>
@@ -4106,7 +4292,7 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B145" s="1" t="n">
         <v>-1.52272727</v>
@@ -4123,7 +4309,7 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B146" s="1" t="n">
         <v>-1.36111111</v>
@@ -4140,7 +4326,7 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B147" s="1" t="n">
         <v>-0.07792208</v>
@@ -4157,7 +4343,7 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B148" s="1" t="n">
         <v>6.02097902</v>
@@ -4174,7 +4360,7 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B149" s="1" t="n">
         <v>0.13636364</v>
@@ -4191,7 +4377,7 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B150" s="1" t="n">
         <v>-0.26363636</v>
@@ -4208,7 +4394,7 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B151" s="1" t="n">
         <v>1.72332016</v>
@@ -4225,7 +4411,7 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B152" s="1" t="n">
         <v>0.76136364</v>
@@ -4242,7 +4428,7 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B153" s="1" t="n">
         <v>1.35064935</v>
@@ -4259,7 +4445,7 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B154" s="1" t="n">
         <v>0.36363636</v>
@@ -4276,7 +4462,7 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B155" s="1" t="n">
         <v>0.52525253</v>
@@ -4293,7 +4479,7 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B156" s="1" t="n">
         <v>6.0989011</v>
@@ -4310,7 +4496,7 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B157" s="1" t="n">
         <v>0.21428571</v>
@@ -4327,7 +4513,7 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B158" s="1" t="n">
         <v>-0.18571429</v>
@@ -4344,7 +4530,7 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B159" s="1" t="n">
         <v>1.80124224</v>
@@ -4361,7 +4547,7 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B160" s="1" t="n">
         <v>0.83928571</v>
@@ -4378,7 +4564,7 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B161" s="1" t="n">
         <v>1.42857143</v>
@@ -4395,7 +4581,7 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B162" s="1" t="n">
         <v>0.44155844</v>
@@ -4412,7 +4598,7 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B163" s="1" t="n">
         <v>0.6031746</v>
@@ -4429,7 +4615,7 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B164" s="1" t="n">
         <v>-5.88461538</v>
@@ -4446,7 +4632,7 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B165" s="1" t="n">
         <v>-6.28461538</v>
@@ -4463,7 +4649,7 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B166" s="1" t="n">
         <v>-4.29765886</v>
@@ -4480,7 +4666,7 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B167" s="1" t="n">
         <v>-5.25961538</v>
@@ -4497,7 +4683,7 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B168" s="1" t="n">
         <v>-4.67032967</v>
@@ -4514,7 +4700,7 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B169" s="1" t="n">
         <v>-5.65734266</v>
@@ -4531,7 +4717,7 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B170" s="1" t="n">
         <v>-5.4957265</v>
@@ -4548,7 +4734,7 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B171" s="1" t="n">
         <v>-0.4</v>
@@ -4565,7 +4751,7 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B172" s="1" t="n">
         <v>1.58695652</v>
@@ -4582,7 +4768,7 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B173" s="1" t="n">
         <v>0.625</v>
@@ -4599,7 +4785,7 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B174" s="1" t="n">
         <v>1.21428571</v>
@@ -4616,7 +4802,7 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B175" s="1" t="n">
         <v>0.22727273</v>
@@ -4633,7 +4819,7 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B176" s="1" t="n">
         <v>0.38888889</v>
@@ -4650,7 +4836,7 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B177" s="1" t="n">
         <v>1.98695652</v>
@@ -4667,7 +4853,7 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B178" s="1" t="n">
         <v>1.025</v>
@@ -4684,7 +4870,7 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B179" s="1" t="n">
         <v>1.61428571</v>
@@ -4701,7 +4887,7 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B180" s="1" t="n">
         <v>0.62727273</v>
@@ -4718,7 +4904,7 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B181" s="1" t="n">
         <v>0.78888889</v>
@@ -4735,7 +4921,7 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B182" s="1" t="n">
         <v>-0.96195652</v>
@@ -4752,7 +4938,7 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B183" s="1" t="n">
         <v>-0.37267081</v>
@@ -4769,7 +4955,7 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B184" s="1" t="n">
         <v>-1.35968379</v>
@@ -4786,7 +4972,7 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B185" s="1" t="n">
         <v>-1.19806763</v>
@@ -4803,7 +4989,7 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B186" s="1" t="n">
         <v>0.58928571</v>
@@ -4820,7 +5006,7 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B187" s="1" t="n">
         <v>-0.39772727</v>
@@ -4837,7 +5023,7 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B188" s="1" t="n">
         <v>-0.23611111</v>
@@ -4854,7 +5040,7 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B189" s="1" t="n">
         <v>-0.98701299</v>
@@ -4871,7 +5057,7 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B190" s="1" t="n">
         <v>-0.82539683</v>
@@ -4888,7 +5074,7 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B191" s="1" t="n">
         <v>0.16161616</v>
@@ -4922,26 +5108,26 @@
   <dimension ref="A1:E301"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A296" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C303" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="C303" activeCellId="0" sqref="C303"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>4</v>
@@ -4949,7 +5135,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-0.422164552</v>
@@ -4966,7 +5152,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-0.62548545</v>
@@ -4983,7 +5169,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-0.388049219</v>
@@ -5000,7 +5186,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-1.296347761</v>
@@ -5017,7 +5203,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-1.989126932</v>
@@ -5034,7 +5220,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1.392553723</v>
@@ -5051,7 +5237,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-1.630648961</v>
@@ -5068,7 +5254,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-1.532193363</v>
@@ -5085,7 +5271,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-1.892553723</v>
@@ -5102,7 +5288,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>4.010612012</v>
@@ -5119,7 +5305,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.874112944</v>
@@ -5136,7 +5322,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-0.085536179</v>
@@ -5153,7 +5339,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.80518639</v>
@@ -5170,7 +5356,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.986933456</v>
@@ -5187,7 +5373,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.518955506</v>
@@ -5204,7 +5390,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>2.00175522</v>
@@ -5221,7 +5407,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.967806637</v>
@@ -5238,7 +5424,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.482016724</v>
@@ -5255,7 +5441,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>1.100910329</v>
@@ -5272,7 +5458,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>-1.214149967</v>
@@ -5289,7 +5475,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>-0.486049658</v>
@@ -5306,7 +5492,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>-2.316796147</v>
@@ -5323,7 +5509,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>-1.885307346</v>
@@ -5340,7 +5526,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>-2.443835774</v>
@@ -5357,7 +5543,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>-0.203320898</v>
@@ -5374,7 +5560,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0.034115334</v>
@@ -5391,7 +5577,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>-0.874183209</v>
@@ -5408,7 +5594,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>-1.56696238</v>
@@ -5425,7 +5611,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>-0.970389171</v>
@@ -5442,7 +5628,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>-1.208484409</v>
@@ -5459,7 +5645,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>-1.110028811</v>
@@ -5476,7 +5662,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>-1.470389171</v>
@@ -5493,7 +5679,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>4.432776565</v>
@@ -5510,7 +5696,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>1.296277496</v>
@@ -5527,7 +5713,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0.336628373</v>
@@ -5544,7 +5730,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>1.227350942</v>
@@ -5561,7 +5747,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>1.409098009</v>
@@ -5578,7 +5764,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>1.941120058</v>
@@ -5595,7 +5781,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>2.423919772</v>
@@ -5612,7 +5798,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>1.389971189</v>
@@ -5629,7 +5815,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0.904181276</v>
@@ -5646,7 +5832,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>1.523074881</v>
@@ -5663,7 +5849,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>-0.791985415</v>
@@ -5680,7 +5866,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>-0.063885106</v>
@@ -5697,7 +5883,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>-1.894631595</v>
@@ -5714,7 +5900,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>-1.463142794</v>
@@ -5731,7 +5917,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>-2.021671222</v>
@@ -5748,7 +5934,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0.237436231</v>
@@ -5765,7 +5951,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>-0.670862311</v>
@@ -5782,7 +5968,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>-1.363641482</v>
@@ -5799,7 +5985,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>-0.767068273</v>
@@ -5816,7 +6002,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>-1.005163511</v>
@@ -5833,7 +6019,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>-0.906707913</v>
@@ -5850,7 +6036,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>-1.267068273</v>
@@ -5867,7 +6053,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>4.636097462</v>
@@ -5884,7 +6070,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>1.499598394</v>
@@ -5901,7 +6087,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>0.539949271</v>
@@ -5918,7 +6104,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>1.43067184</v>
@@ -5935,7 +6121,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>1.612418906</v>
@@ -5952,7 +6138,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>2.144440956</v>
@@ -5969,7 +6155,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>2.62724067</v>
@@ -5986,7 +6172,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>1.593292087</v>
@@ -6003,7 +6189,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>1.107502174</v>
@@ -6020,7 +6206,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>1.726395779</v>
@@ -6037,7 +6223,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>-0.588664517</v>
@@ -6054,7 +6240,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>0.139435792</v>
@@ -6071,7 +6257,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>-1.691310697</v>
@@ -6088,7 +6274,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>-1.259821896</v>
@@ -6105,7 +6291,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>-1.818350324</v>
@@ -6122,7 +6308,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>-0.908298542</v>
@@ -6139,7 +6325,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>-1.601077713</v>
@@ -6156,7 +6342,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>-1.004504505</v>
@@ -6173,7 +6359,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>-1.242599743</v>
@@ -6190,7 +6376,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>-1.144144144</v>
@@ -6207,7 +6393,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>-1.504504505</v>
@@ -6224,7 +6410,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>4.398661231</v>
@@ -6241,7 +6427,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>1.262162162</v>
@@ -6258,7 +6444,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>0.302513039</v>
@@ -6275,7 +6461,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>1.193235608</v>
@@ -6292,7 +6478,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>1.374982675</v>
@@ -6309,7 +6495,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>1.907004725</v>
@@ -6326,7 +6512,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>2.389804439</v>
@@ -6343,7 +6529,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>1.355855856</v>
@@ -6360,7 +6546,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>0.870065942</v>
@@ -6377,7 +6563,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>1.488959548</v>
@@ -6394,7 +6580,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>-0.826100749</v>
@@ -6411,7 +6597,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>-0.098000439</v>
@@ -6428,7 +6614,7 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>-1.928746929</v>
@@ -6445,7 +6631,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>-1.497258128</v>
@@ -6462,7 +6648,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>-2.055786556</v>
@@ -6479,7 +6665,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>-0.692779171</v>
@@ -6496,7 +6682,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>-0.096205962</v>
@@ -6513,7 +6699,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>-0.3343012</v>
@@ -6530,7 +6716,7 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>-0.235845602</v>
@@ -6547,7 +6733,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>-0.596205962</v>
@@ -6564,7 +6750,7 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>5.306959774</v>
@@ -6581,7 +6767,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>2.170460705</v>
@@ -6598,7 +6784,7 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>1.210811582</v>
@@ -6615,7 +6801,7 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>2.101534151</v>
@@ -6632,7 +6818,7 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>2.283281217</v>
@@ -6649,7 +6835,7 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>2.815303267</v>
@@ -6666,7 +6852,7 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>3.298102981</v>
@@ -6683,7 +6869,7 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>2.264154398</v>
@@ -6700,7 +6886,7 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>1.778364485</v>
@@ -6717,7 +6903,7 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>2.39725809</v>
@@ -6734,7 +6920,7 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>0.082197794</v>
@@ -6751,7 +6937,7 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>0.810298103</v>
@@ -6768,7 +6954,7 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>-1.020448386</v>
@@ -6785,7 +6971,7 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B110" s="0" t="n">
         <v>-0.588959585</v>
@@ -6802,7 +6988,7 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>-1.147488013</v>
@@ -6819,7 +7005,7 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B112" s="0" t="n">
         <v>0.596573209</v>
@@ -6836,7 +7022,7 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>0.358477971</v>
@@ -6853,7 +7039,7 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>0.456933569</v>
@@ -6870,7 +7056,7 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>0.096573209</v>
@@ -6887,7 +7073,7 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="B116" s="0" t="n">
         <v>5.999738944</v>
@@ -6904,7 +7090,7 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B117" s="0" t="n">
         <v>2.863239875</v>
@@ -6921,7 +7107,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>1.903590753</v>
@@ -6938,7 +7124,7 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B119" s="0" t="n">
         <v>2.794313322</v>
@@ -6955,7 +7141,7 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B120" s="0" t="n">
         <v>2.976060388</v>
@@ -6972,7 +7158,7 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>3.508082438</v>
@@ -6989,7 +7175,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B122" s="0" t="n">
         <v>3.990882152</v>
@@ -7006,7 +7192,7 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B123" s="0" t="n">
         <v>2.956933569</v>
@@ -7023,7 +7209,7 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B124" s="0" t="n">
         <v>2.471143655</v>
@@ -7040,7 +7226,7 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B125" s="0" t="n">
         <v>3.090037261</v>
@@ -7057,7 +7243,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B126" s="0" t="n">
         <v>0.774976965</v>
@@ -7074,7 +7260,7 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B127" s="0" t="n">
         <v>1.503077274</v>
@@ -7091,7 +7277,7 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="B128" s="0" t="n">
         <v>-0.327669216</v>
@@ -7108,7 +7294,7 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B129" s="0" t="n">
         <v>0.103819586</v>
@@ -7125,7 +7311,7 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B130" s="0" t="n">
         <v>-0.454708843</v>
@@ -7142,7 +7328,7 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B131" s="0" t="n">
         <v>-0.238095238</v>
@@ -7159,7 +7345,7 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="B132" s="0" t="n">
         <v>-0.13963964</v>
@@ -7176,7 +7362,7 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B133" s="0" t="n">
         <v>-0.5</v>
@@ -7193,7 +7379,7 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="B134" s="0" t="n">
         <v>5.403165736</v>
@@ -7210,7 +7396,7 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B135" s="0" t="n">
         <v>2.266666667</v>
@@ -7227,7 +7413,7 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B136" s="0" t="n">
         <v>1.307017544</v>
@@ -7244,7 +7430,7 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="B137" s="0" t="n">
         <v>2.197740113</v>
@@ -7261,7 +7447,7 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B138" s="0" t="n">
         <v>2.379487179</v>
@@ -7278,7 +7464,7 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B139" s="0" t="n">
         <v>2.911509229</v>
@@ -7295,7 +7481,7 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B140" s="0" t="n">
         <v>3.394308943</v>
@@ -7312,7 +7498,7 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="B141" s="0" t="n">
         <v>2.36036036</v>
@@ -7329,7 +7515,7 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B142" s="0" t="n">
         <v>1.874570447</v>
@@ -7346,7 +7532,7 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B143" s="0" t="n">
         <v>2.493464052</v>
@@ -7363,7 +7549,7 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B144" s="0" t="n">
         <v>0.178403756</v>
@@ -7380,7 +7566,7 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B145" s="0" t="n">
         <v>0.906504065</v>
@@ -7397,7 +7583,7 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B146" s="0" t="n">
         <v>-0.924242424</v>
@@ -7414,7 +7600,7 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B147" s="0" t="n">
         <v>-0.492753623</v>
@@ -7431,7 +7617,7 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B148" s="0" t="n">
         <v>-1.051282051</v>
@@ -7448,7 +7634,7 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B149" s="0" t="n">
         <v>0.098455598</v>
@@ -7465,7 +7651,7 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B150" s="0" t="n">
         <v>-0.261904762</v>
@@ -7482,7 +7668,7 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="B151" s="0" t="n">
         <v>5.641260974</v>
@@ -7499,7 +7685,7 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="B152" s="0" t="n">
         <v>2.504761905</v>
@@ -7516,7 +7702,7 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B153" s="0" t="n">
         <v>1.545112782</v>
@@ -7533,7 +7719,7 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="B154" s="0" t="n">
         <v>2.435835351</v>
@@ -7550,7 +7736,7 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B155" s="0" t="n">
         <v>2.617582418</v>
@@ -7567,7 +7753,7 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="B156" s="0" t="n">
         <v>3.149604467</v>
@@ -7584,7 +7770,7 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="B157" s="0" t="n">
         <v>3.632404181</v>
@@ -7601,7 +7787,7 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B158" s="0" t="n">
         <v>2.598455598</v>
@@ -7618,7 +7804,7 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B159" s="0" t="n">
         <v>2.112665685</v>
@@ -7635,7 +7821,7 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B160" s="0" t="n">
         <v>2.73155929</v>
@@ -7652,7 +7838,7 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B161" s="0" t="n">
         <v>0.416498994</v>
@@ -7669,7 +7855,7 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B162" s="0" t="n">
         <v>1.144599303</v>
@@ -7686,7 +7872,7 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="B163" s="0" t="n">
         <v>-0.686147186</v>
@@ -7703,7 +7889,7 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="B164" s="0" t="n">
         <v>-0.254658385</v>
@@ -7720,7 +7906,7 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B165" s="0" t="n">
         <v>-0.813186813</v>
@@ -7737,7 +7923,7 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B166" s="0" t="n">
         <v>-0.36036036</v>
@@ -7754,7 +7940,7 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="B167" s="0" t="n">
         <v>5.542805375</v>
@@ -7771,7 +7957,7 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="B168" s="0" t="n">
         <v>2.406306306</v>
@@ -7788,7 +7974,7 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="B169" s="0" t="n">
         <v>1.446657183</v>
@@ -7805,7 +7991,7 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B170" s="0" t="n">
         <v>2.337379753</v>
@@ -7822,7 +8008,7 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="B171" s="0" t="n">
         <v>2.519126819</v>
@@ -7839,7 +8025,7 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B172" s="0" t="n">
         <v>3.051148869</v>
@@ -7856,7 +8042,7 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="B173" s="0" t="n">
         <v>3.533948583</v>
@@ -7873,7 +8059,7 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="B174" s="0" t="n">
         <v>2.5</v>
@@ -7890,7 +8076,7 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B175" s="0" t="n">
         <v>2.014210086</v>
@@ -7907,7 +8093,7 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="B176" s="0" t="n">
         <v>2.633103692</v>
@@ -7924,7 +8110,7 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="B177" s="0" t="n">
         <v>0.318043396</v>
@@ -7941,7 +8127,7 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="B178" s="0" t="n">
         <v>1.046143705</v>
@@ -7958,7 +8144,7 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="B179" s="0" t="n">
         <v>-0.784602785</v>
@@ -7975,7 +8161,7 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="B180" s="0" t="n">
         <v>-0.353113984</v>
@@ -7992,7 +8178,7 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="B181" s="0" t="n">
         <v>-0.911642412</v>
@@ -8009,7 +8195,7 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="B182" s="0" t="n">
         <v>5.903165736</v>
@@ -8026,7 +8212,7 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="B183" s="0" t="n">
         <v>2.766666667</v>
@@ -8043,7 +8229,7 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="B184" s="0" t="n">
         <v>1.807017544</v>
@@ -8060,7 +8246,7 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="B185" s="0" t="n">
         <v>2.697740113</v>
@@ -8077,7 +8263,7 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B186" s="0" t="n">
         <v>2.879487179</v>
@@ -8094,7 +8280,7 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="B187" s="0" t="n">
         <v>3.411509229</v>
@@ -8111,7 +8297,7 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="B188" s="0" t="n">
         <v>3.894308943</v>
@@ -8128,7 +8314,7 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="B189" s="0" t="n">
         <v>2.86036036</v>
@@ -8145,7 +8331,7 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="B190" s="0" t="n">
         <v>2.374570447</v>
@@ -8162,7 +8348,7 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="B191" s="0" t="n">
         <v>2.993464052</v>
@@ -8179,7 +8365,7 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="B192" s="0" t="n">
         <v>0.678403756</v>
@@ -8196,7 +8382,7 @@
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B193" s="0" t="n">
         <v>1.406504065</v>
@@ -8213,7 +8399,7 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B194" s="0" t="n">
         <v>-0.424242424</v>
@@ -8230,7 +8416,7 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="B195" s="0" t="n">
         <v>0.007246377</v>
@@ -8247,7 +8433,7 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="B196" s="0" t="n">
         <v>-0.551282051</v>
@@ -8264,7 +8450,7 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="B197" s="0" t="n">
         <v>-3.136499069</v>
@@ -8281,7 +8467,7 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="B198" s="0" t="n">
         <v>-4.096148192</v>
@@ -8298,7 +8484,7 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="B199" s="0" t="n">
         <v>-3.205425623</v>
@@ -8315,7 +8501,7 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="B200" s="0" t="n">
         <v>-3.023678556</v>
@@ -8332,7 +8518,7 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="B201" s="0" t="n">
         <v>-2.491656506</v>
@@ -8349,7 +8535,7 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="B202" s="0" t="n">
         <v>-2.008856792</v>
@@ -8366,7 +8552,7 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B203" s="0" t="n">
         <v>-3.042805375</v>
@@ -8383,7 +8569,7 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="B204" s="0" t="n">
         <v>-3.528595289</v>
@@ -8400,7 +8586,7 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B205" s="0" t="n">
         <v>-2.909701683</v>
@@ -8417,7 +8603,7 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="B206" s="0" t="n">
         <v>-5.22476198</v>
@@ -8434,7 +8620,7 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="B207" s="0" t="n">
         <v>-4.496661671</v>
@@ -8451,7 +8637,7 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="B208" s="0" t="n">
         <v>-6.32740816</v>
@@ -8468,7 +8654,7 @@
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="B209" s="0" t="n">
         <v>-5.895919359</v>
@@ -8485,7 +8671,7 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="B210" s="0" t="n">
         <v>-6.454447787</v>
@@ -8502,7 +8688,7 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="B211" s="0" t="n">
         <v>-0.959649123</v>
@@ -8519,7 +8705,7 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="B212" s="0" t="n">
         <v>-0.068926554</v>
@@ -8536,7 +8722,7 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B213" s="0" t="n">
         <v>0.112820513</v>
@@ -8553,7 +8739,7 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="B214" s="0" t="n">
         <v>0.644842562</v>
@@ -8570,7 +8756,7 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B215" s="0" t="n">
         <v>1.127642276</v>
@@ -8587,7 +8773,7 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="B216" s="0" t="n">
         <v>0.093693694</v>
@@ -8604,7 +8790,7 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="B217" s="0" t="n">
         <v>-0.39209622</v>
@@ -8621,7 +8807,7 @@
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="B218" s="0" t="n">
         <v>0.226797386</v>
@@ -8638,7 +8824,7 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="B219" s="0" t="n">
         <v>-2.088262911</v>
@@ -8655,7 +8841,7 @@
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="B220" s="0" t="n">
         <v>-1.360162602</v>
@@ -8672,7 +8858,7 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="B221" s="0" t="n">
         <v>-3.190909091</v>
@@ -8689,7 +8875,7 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="B222" s="0" t="n">
         <v>-2.75942029</v>
@@ -8706,7 +8892,7 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="B223" s="0" t="n">
         <v>-3.317948718</v>
@@ -8723,7 +8909,7 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="B224" s="0" t="n">
         <v>0.890722569</v>
@@ -8740,7 +8926,7 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="B225" s="0" t="n">
         <v>1.072469636</v>
@@ -8757,7 +8943,7 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="B226" s="0" t="n">
         <v>1.604491685</v>
@@ -8774,7 +8960,7 @@
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="B227" s="0" t="n">
         <v>2.087291399</v>
@@ -8791,7 +8977,7 @@
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="B228" s="0" t="n">
         <v>1.053342817</v>
@@ -8808,7 +8994,7 @@
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="B229" s="0" t="n">
         <v>0.567552903</v>
@@ -8825,7 +9011,7 @@
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="B230" s="0" t="n">
         <v>1.186446508</v>
@@ -8842,7 +9028,7 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="B231" s="0" t="n">
         <v>-1.128613788</v>
@@ -8859,7 +9045,7 @@
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="B232" s="0" t="n">
         <v>-0.400513479</v>
@@ -8876,7 +9062,7 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="B233" s="0" t="n">
         <v>-2.231259968</v>
@@ -8893,7 +9079,7 @@
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="B234" s="0" t="n">
         <v>-1.799771167</v>
@@ -8910,7 +9096,7 @@
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="B235" s="0" t="n">
         <v>-2.358299595</v>
@@ -8927,7 +9113,7 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="B236" s="0" t="n">
         <v>0.181747066</v>
@@ -8944,7 +9130,7 @@
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="B237" s="0" t="n">
         <v>0.713769116</v>
@@ -8961,7 +9147,7 @@
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B238" s="0" t="n">
         <v>1.19656883</v>
@@ -8978,7 +9164,7 @@
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="B239" s="0" t="n">
         <v>0.162620247</v>
@@ -8995,7 +9181,7 @@
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="B240" s="0" t="n">
         <v>-0.323169666</v>
@@ -9012,7 +9198,7 @@
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="B241" s="0" t="n">
         <v>0.295723939</v>
@@ -9029,7 +9215,7 @@
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="B242" s="0" t="n">
         <v>-2.019336357</v>
@@ -9046,7 +9232,7 @@
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="B243" s="0" t="n">
         <v>-1.291236048</v>
@@ -9063,7 +9249,7 @@
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B244" s="0" t="n">
         <v>-3.121982537</v>
@@ -9080,7 +9266,7 @@
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="B245" s="0" t="n">
         <v>-2.690493736</v>
@@ -9097,7 +9283,7 @@
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="B246" s="0" t="n">
         <v>-3.249022164</v>
@@ -9114,7 +9300,7 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="B247" s="0" t="n">
         <v>0.53202205</v>
@@ -9131,7 +9317,7 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="B248" s="0" t="n">
         <v>1.014821764</v>
@@ -9148,7 +9334,7 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="B249" s="0" t="n">
         <v>-0.019126819</v>
@@ -9165,7 +9351,7 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B250" s="0" t="n">
         <v>-0.504916733</v>
@@ -9182,7 +9368,7 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="B251" s="0" t="n">
         <v>0.113976873</v>
@@ -9199,7 +9385,7 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="B252" s="0" t="n">
         <v>-2.201083424</v>
@@ -9216,7 +9402,7 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="B253" s="0" t="n">
         <v>-1.472983114</v>
@@ -9233,7 +9419,7 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="B254" s="0" t="n">
         <v>-3.303729604</v>
@@ -9250,7 +9436,7 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="B255" s="0" t="n">
         <v>-2.872240803</v>
@@ -9267,7 +9453,7 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="B256" s="0" t="n">
         <v>-3.430769231</v>
@@ -9284,7 +9470,7 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="B257" s="0" t="n">
         <v>0.482799714</v>
@@ -9301,7 +9487,7 @@
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="B258" s="0" t="n">
         <v>-0.551148869</v>
@@ -9318,7 +9504,7 @@
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="B259" s="0" t="n">
         <v>-1.036938782</v>
@@ -9335,7 +9521,7 @@
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="B260" s="0" t="n">
         <v>-0.418045177</v>
@@ -9352,7 +9538,7 @@
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="B261" s="0" t="n">
         <v>-2.733105473</v>
@@ -9369,7 +9555,7 @@
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="B262" s="0" t="n">
         <v>-2.005005164</v>
@@ -9386,7 +9572,7 @@
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="B263" s="0" t="n">
         <v>-3.835751653</v>
@@ -9403,7 +9589,7 @@
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="B264" s="0" t="n">
         <v>-3.404262852</v>
@@ -9420,7 +9606,7 @@
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B265" s="0" t="n">
         <v>-3.96279128</v>
@@ -9437,7 +9623,7 @@
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="B266" s="0" t="n">
         <v>-1.033948583</v>
@@ -9454,7 +9640,7 @@
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="B267" s="0" t="n">
         <v>-1.519738496</v>
@@ -9471,7 +9657,7 @@
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="B268" s="0" t="n">
         <v>-0.900844891</v>
@@ -9488,7 +9674,7 @@
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="B269" s="0" t="n">
         <v>-3.215905187</v>
@@ -9505,7 +9691,7 @@
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="B270" s="0" t="n">
         <v>-2.487804878</v>
@@ -9522,7 +9708,7 @@
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="B271" s="0" t="n">
         <v>-4.318551367</v>
@@ -9539,7 +9725,7 @@
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="B272" s="0" t="n">
         <v>-3.887062566</v>
@@ -9556,7 +9742,7 @@
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="B273" s="0" t="n">
         <v>-4.445590994</v>
@@ -9573,7 +9759,7 @@
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="B274" s="0" t="n">
         <v>-0.485789914</v>
@@ -9590,7 +9776,7 @@
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="B275" s="0" t="n">
         <v>0.133103692</v>
@@ -9607,7 +9793,7 @@
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="B276" s="0" t="n">
         <v>-2.181956604</v>
@@ -9624,7 +9810,7 @@
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="B277" s="0" t="n">
         <v>-1.453856295</v>
@@ -9641,7 +9827,7 @@
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="B278" s="0" t="n">
         <v>-3.284602785</v>
@@ -9658,7 +9844,7 @@
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="B279" s="0" t="n">
         <v>-2.853113984</v>
@@ -9675,7 +9861,7 @@
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="B280" s="0" t="n">
         <v>-3.411642412</v>
@@ -9692,7 +9878,7 @@
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="B281" s="0" t="n">
         <v>0.618893606</v>
@@ -9709,7 +9895,7 @@
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B282" s="0" t="n">
         <v>-1.696166691</v>
@@ -9726,7 +9912,7 @@
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="B283" s="0" t="n">
         <v>-0.968066382</v>
@@ -9743,7 +9929,7 @@
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="B284" s="0" t="n">
         <v>-2.798812871</v>
@@ -9760,7 +9946,7 @@
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="B285" s="0" t="n">
         <v>-2.36732407</v>
@@ -9777,7 +9963,7 @@
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="B286" s="0" t="n">
         <v>-2.925852498</v>
@@ -9794,7 +9980,7 @@
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="B287" s="0" t="n">
         <v>-2.315060296</v>
@@ -9811,7 +9997,7 @@
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="B288" s="0" t="n">
         <v>-1.586959987</v>
@@ -9828,7 +10014,7 @@
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="B289" s="0" t="n">
         <v>-3.417706477</v>
@@ -9845,7 +10031,7 @@
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="B290" s="0" t="n">
         <v>-2.986217675</v>
@@ -9862,7 +10048,7 @@
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="B291" s="0" t="n">
         <v>-3.544746104</v>
@@ -9879,7 +10065,7 @@
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="B292" s="0" t="n">
         <v>0.728100309</v>
@@ -9896,7 +10082,7 @@
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="B293" s="0" t="n">
         <v>-1.10264618</v>
@@ -9913,7 +10099,7 @@
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="B294" s="0" t="n">
         <v>-0.671157379</v>
@@ -9930,7 +10116,7 @@
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="B295" s="0" t="n">
         <v>-1.229685807</v>
@@ -9947,7 +10133,7 @@
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="B296" s="0" t="n">
         <v>-1.830746489</v>
@@ -9964,7 +10150,7 @@
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="B297" s="0" t="n">
         <v>-1.399257688</v>
@@ -9981,7 +10167,7 @@
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="B298" s="0" t="n">
         <v>-1.957786116</v>
@@ -9998,7 +10184,7 @@
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="B299" s="0" t="n">
         <v>0.431488801</v>
@@ -10015,7 +10201,7 @@
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="B300" s="0" t="n">
         <v>-0.127039627</v>
@@ -10032,7 +10218,7 @@
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="B301" s="0" t="n">
         <v>-0.558528428</v>
@@ -10065,35 +10251,35 @@
   </sheetPr>
   <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C101" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C101" activeCellId="0" sqref="C101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>-0.05238095</v>
@@ -10113,7 +10299,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>-0.05238095</v>
@@ -10133,7 +10319,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>-0.05238095</v>
@@ -10153,7 +10339,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>-0.05238095</v>
@@ -10173,7 +10359,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>0.06160868</v>
@@ -10193,7 +10379,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>0.005090312</v>
@@ -10213,7 +10399,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>-0.02965368</v>
@@ -10233,7 +10419,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>-0.02339545</v>
@@ -10253,7 +10439,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>-0.04166667</v>
@@ -10273,7 +10459,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>0.06907654</v>
@@ -10293,7 +10479,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>-0.01666667</v>
@@ -10313,7 +10499,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>0.02169312</v>
@@ -10333,7 +10519,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>-0.01729323</v>
@@ -10353,7 +10539,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>-0.04013605</v>
@@ -10373,7 +10559,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>4.725387E-015</v>
@@ -10393,7 +10579,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>5.918877E-015</v>
@@ -10413,7 +10599,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>1.257328E-014</v>
@@ -10433,7 +10619,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>0.1139896</v>
@@ -10453,7 +10639,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>0.05747126</v>
@@ -10473,7 +10659,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>0.02272727</v>
@@ -10493,7 +10679,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>0.02898551</v>
@@ -10513,7 +10699,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>0.01071429</v>
@@ -10533,7 +10719,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>0.1214575</v>
@@ -10553,7 +10739,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>0.03571429</v>
@@ -10573,7 +10759,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>0.07407407</v>
@@ -10593,7 +10779,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>0.03508772</v>
@@ -10613,7 +10799,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>0.0122449</v>
@@ -10633,7 +10819,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>1.19349E-015</v>
@@ -10653,7 +10839,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>7.847889E-015</v>
@@ -10673,7 +10859,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>0.1139896</v>
@@ -10693,7 +10879,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>0.05747126</v>
@@ -10713,7 +10899,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>0.02272727</v>
@@ -10733,7 +10919,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>0.02898551</v>
@@ -10753,7 +10939,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>0.01071429</v>
@@ -10773,7 +10959,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>0.1214575</v>
@@ -10793,7 +10979,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>0.03571429</v>
@@ -10813,7 +10999,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>0.07407407</v>
@@ -10833,7 +11019,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>0.03508772</v>
@@ -10853,7 +11039,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>0.0122449</v>
@@ -10873,7 +11059,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>6.654399E-015</v>
@@ -10893,7 +11079,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>0.1139896</v>
@@ -10913,7 +11099,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>0.05747126</v>
@@ -10933,7 +11119,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>0.02272727</v>
@@ -10953,7 +11139,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>0.02898551</v>
@@ -10973,7 +11159,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>0.01071429</v>
@@ -10993,7 +11179,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>0.1214575</v>
@@ -11013,7 +11199,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>0.03571429</v>
@@ -11033,7 +11219,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>0.07407407</v>
@@ -11053,7 +11239,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>0.03508772</v>
@@ -11073,7 +11259,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>0.0122449</v>
@@ -11093,7 +11279,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>0.1139896</v>
@@ -11113,7 +11299,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>0.05747126</v>
@@ -11133,7 +11319,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>0.02272727</v>
@@ -11153,7 +11339,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>0.02898551</v>
@@ -11173,7 +11359,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>0.01071429</v>
@@ -11193,7 +11379,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>0.1214575</v>
@@ -11213,7 +11399,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>0.03571429</v>
@@ -11233,7 +11419,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>0.07407407</v>
@@ -11253,7 +11439,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>0.03508772</v>
@@ -11273,7 +11459,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>0.0122449</v>
@@ -11293,7 +11479,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>-0.05651837</v>
@@ -11313,7 +11499,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>-0.09126236</v>
@@ -11333,7 +11519,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="B64" s="1" t="n">
         <v>-0.08500413</v>
@@ -11353,7 +11539,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="B65" s="1" t="n">
         <v>-0.1032754</v>
@@ -11373,7 +11559,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="B66" s="1" t="n">
         <v>0.007467853</v>
@@ -11393,7 +11579,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>-0.07827535</v>
@@ -11413,7 +11599,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>-0.03991556</v>
@@ -11433,7 +11619,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>-0.07890192</v>
@@ -11453,7 +11639,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B70" s="1" t="n">
         <v>-0.1017447</v>
@@ -11473,7 +11659,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>-0.03474399</v>
@@ -11493,7 +11679,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>-0.02848576</v>
@@ -11513,7 +11699,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>-0.04675698</v>
@@ -11533,7 +11719,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>0.06398623</v>
@@ -11553,7 +11739,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="B75" s="1" t="n">
         <v>-0.02175698</v>
@@ -11573,7 +11759,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="B76" s="1" t="n">
         <v>0.01660281</v>
@@ -11593,7 +11779,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="B77" s="1" t="n">
         <v>-0.02238355</v>
@@ -11613,7 +11799,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="B78" s="1" t="n">
         <v>-0.04522637</v>
@@ -11633,7 +11819,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="B79" s="1" t="n">
         <v>0.006258235</v>
@@ -11653,7 +11839,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="B80" s="1" t="n">
         <v>-0.01201299</v>
@@ -11673,7 +11859,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="B81" s="1" t="n">
         <v>0.09873022</v>
@@ -11693,7 +11879,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="B82" s="1" t="n">
         <v>0.01298701</v>
@@ -11713,7 +11899,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="B83" s="1" t="n">
         <v>0.0513468</v>
@@ -11733,7 +11919,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="B84" s="1" t="n">
         <v>0.01236045</v>
@@ -11753,7 +11939,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="B85" s="1" t="n">
         <v>-0.01048237</v>
@@ -11773,7 +11959,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="B86" s="1" t="n">
         <v>-0.01827122</v>
@@ -11793,7 +11979,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B87" s="1" t="n">
         <v>0.09247198</v>
@@ -11813,7 +11999,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="B88" s="1" t="n">
         <v>0.006728778</v>
@@ -11833,7 +12019,7 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="B89" s="1" t="n">
         <v>0.04508857</v>
@@ -11853,7 +12039,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="B90" s="1" t="n">
         <v>0.006102212</v>
@@ -11873,7 +12059,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="B91" s="1" t="n">
         <v>-0.01674061</v>
@@ -11893,7 +12079,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="B92" s="1" t="n">
         <v>0.1107432</v>
@@ -11913,7 +12099,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="B93" s="1" t="n">
         <v>0.025</v>
@@ -11933,7 +12119,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="B94" s="1" t="n">
         <v>0.06335979</v>
@@ -11953,7 +12139,7 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="B95" s="1" t="n">
         <v>0.02437343</v>
@@ -11973,7 +12159,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="B96" s="1" t="n">
         <v>0.001530612</v>
@@ -11993,7 +12179,7 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="B97" s="1" t="n">
         <v>-0.0857432</v>
@@ -12013,7 +12199,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="B98" s="1" t="n">
         <v>-0.04738342</v>
@@ -12033,7 +12219,7 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="B99" s="1" t="n">
         <v>-0.08636977</v>
@@ -12053,7 +12239,7 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="B100" s="1" t="n">
         <v>-0.1092126</v>
@@ -12073,7 +12259,7 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="B101" s="1" t="n">
         <v>0.03835979</v>
@@ -12093,7 +12279,7 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="B102" s="1" t="n">
         <v>-0.0006265664</v>
@@ -12113,7 +12299,7 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="B103" s="1" t="n">
         <v>-0.02346939</v>
@@ -12133,7 +12319,7 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="B104" s="1" t="n">
         <v>-0.03898635</v>
@@ -12153,7 +12339,7 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="B105" s="1" t="n">
         <v>-0.06182918</v>
@@ -12173,7 +12359,7 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="B106" s="1" t="n">
         <v>-0.02284282</v>
@@ -12210,38 +12396,38 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="78.91"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>

--- a/results/noca_day_binn_results.xlsx
+++ b/results/noca_day_binn_results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="aridity_gradient_full_tukey" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="512">
   <si>
     <t xml:space="preserve">contrast</t>
   </si>
@@ -1662,8 +1662,8 @@
   </sheetPr>
   <dimension ref="A1:F191"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A178" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A123" activeCellId="0" sqref="A123"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5105,10 +5105,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E301"/>
+  <dimension ref="A1:F301"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A296" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C303" activeCellId="0" sqref="C303"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A156" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F265" activeCellId="0" sqref="F265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5132,6 +5132,9 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -5302,6 +5305,9 @@
       <c r="E11" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F11" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -5693,6 +5699,9 @@
       <c r="E34" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F34" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
@@ -6067,6 +6076,9 @@
       <c r="E56" s="0" t="n">
         <v>1E-007</v>
       </c>
+      <c r="F56" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
@@ -6424,6 +6436,9 @@
       <c r="E77" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F77" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
@@ -6764,6 +6779,9 @@
       <c r="E97" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F97" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
@@ -6832,6 +6850,9 @@
       <c r="E101" s="0" t="n">
         <v>0.0266111</v>
       </c>
+      <c r="F101" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
@@ -6849,6 +6870,9 @@
       <c r="E102" s="0" t="n">
         <v>0.0022609</v>
       </c>
+      <c r="F102" s="0" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
@@ -7087,6 +7111,9 @@
       <c r="E116" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F116" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
@@ -7172,6 +7199,9 @@
       <c r="E121" s="0" t="n">
         <v>0.0289448</v>
       </c>
+      <c r="F121" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
@@ -7393,6 +7423,9 @@
       <c r="E134" s="0" t="n">
         <v>0.0731245</v>
       </c>
+      <c r="F134" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
@@ -7682,6 +7715,9 @@
       <c r="E151" s="0" t="n">
         <v>0.065338</v>
       </c>
+      <c r="F151" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
@@ -8209,6 +8245,9 @@
       <c r="E182" s="0" t="n">
         <v>9.52E-005</v>
       </c>
+      <c r="F182" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
@@ -8464,6 +8503,9 @@
       <c r="E197" s="0" t="n">
         <v>0.000301</v>
       </c>
+      <c r="F197" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
@@ -8481,6 +8523,9 @@
       <c r="E198" s="0" t="n">
         <v>1.3E-006</v>
       </c>
+      <c r="F198" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
@@ -8498,6 +8543,9 @@
       <c r="E199" s="0" t="n">
         <v>5.44E-005</v>
       </c>
+      <c r="F199" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
@@ -8515,6 +8563,9 @@
       <c r="E200" s="0" t="n">
         <v>1.4E-006</v>
       </c>
+      <c r="F200" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
@@ -8532,6 +8583,9 @@
       <c r="E201" s="0" t="n">
         <v>0.002166</v>
       </c>
+      <c r="F201" s="0" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
@@ -8583,6 +8637,9 @@
       <c r="E204" s="0" t="n">
         <v>0.015624</v>
       </c>
+      <c r="F204" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
@@ -8600,6 +8657,9 @@
       <c r="E205" s="0" t="n">
         <v>0.0152225</v>
       </c>
+      <c r="F205" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
@@ -8617,6 +8677,9 @@
       <c r="E206" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F206" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
@@ -8651,6 +8714,9 @@
       <c r="E208" s="0" t="n">
         <v>0.0036641</v>
       </c>
+      <c r="F208" s="0" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
@@ -8668,6 +8734,9 @@
       <c r="E209" s="0" t="n">
         <v>0.0006148</v>
       </c>
+      <c r="F209" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
@@ -8685,6 +8754,9 @@
       <c r="E210" s="0" t="n">
         <v>1E-007</v>
       </c>
+      <c r="F210" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
@@ -9619,6 +9691,9 @@
       </c>
       <c r="E265" s="0" t="n">
         <v>0.0288933</v>
+      </c>
+      <c r="F265" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
